--- a/SHEETS/dict_data_type.xlsx
+++ b/SHEETS/dict_data_type.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Documents\CSE 881\PROJECT\CSE881_PROJ\SHEETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3547787-9AE9-46BC-979D-C0DDA96A37B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC9C5DB-2896-43B5-9FE6-F3441ECAE3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="init_selection" sheetId="2" r:id="rId2"/>
+    <sheet name="check" sheetId="3" r:id="rId2"/>
+    <sheet name="init_selection" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$230</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">check!$A$1:$B$530</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$530</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,6 +44,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Pietono, Victor</author>
     <author>tc={5070FA7B-10B5-440D-9510-ED6EB4A25ABA}</author>
     <author>tc={F9813502-1A89-49CF-951D-A25F16C661C0}</author>
     <author>tc={F8B434B9-248C-44B9-9521-A93A022A933C}</author>
@@ -49,7 +52,32 @@
     <author>tc={F4916A3A-E8CD-4423-A4E2-599BD1AE2B10}</author>
   </authors>
   <commentList>
-    <comment ref="A61" authorId="0" shapeId="0" xr:uid="{5070FA7B-10B5-440D-9510-ED6EB4A25ABA}">
+    <comment ref="E40" authorId="0" shapeId="0" xr:uid="{B7C97ECB-F029-4CA3-BD48-4A47FAB19FC5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Pietono, Victor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This needs to be merged since collinear.
+Merged to median.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A61" authorId="1" shapeId="0" xr:uid="{5070FA7B-10B5-440D-9510-ED6EB4A25ABA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -57,7 +85,7 @@
     I took these out. We still have other broader oral health indicators.</t>
       </text>
     </comment>
-    <comment ref="A209" authorId="1" shapeId="0" xr:uid="{F9813502-1A89-49CF-951D-A25F16C661C0}">
+    <comment ref="A209" authorId="2" shapeId="0" xr:uid="{F9813502-1A89-49CF-951D-A25F16C661C0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -65,7 +93,7 @@
     Same as reason as other dental removal</t>
       </text>
     </comment>
-    <comment ref="E228" authorId="2" shapeId="0" xr:uid="{F8B434B9-248C-44B9-9521-A93A022A933C}">
+    <comment ref="E228" authorId="3" shapeId="0" xr:uid="{F8B434B9-248C-44B9-9521-A93A022A933C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -74,7 +102,7 @@
 Leakage: when feature is direct proxy of target.</t>
       </text>
     </comment>
-    <comment ref="E229" authorId="3" shapeId="0" xr:uid="{B36E7B88-2A8D-4EFB-A6C1-06B9CF5B8A47}">
+    <comment ref="E229" authorId="4" shapeId="0" xr:uid="{B36E7B88-2A8D-4EFB-A6C1-06B9CF5B8A47}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -83,7 +111,25 @@
 Leakage: when feature is direct proxy of target.</t>
       </text>
     </comment>
-    <comment ref="A437" authorId="4" shapeId="0" xr:uid="{F4916A3A-E8CD-4423-A4E2-599BD1AE2B10}">
+    <comment ref="A436" authorId="5" shapeId="0" xr:uid="{F4916A3A-E8CD-4423-A4E2-599BD1AE2B10}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This one, we can bring this on slide.. If the model intends to make an individual prediction, this shouldn’t be used due to ethical issues.. However, for policy-making, this is useful.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E620B3FC-45E1-435D-91C9-D8386002AF21}</author>
+  </authors>
+  <commentList>
+    <comment ref="A176" authorId="0" shapeId="0" xr:uid="{E620B3FC-45E1-435D-91C9-D8386002AF21}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -96,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="880">
   <si>
     <t>variable_name</t>
   </si>
@@ -1246,12 +1292,6 @@
     <t>LBDPCT_Transferrin_Saturation</t>
   </si>
   <si>
-    <t>LBXGH_Glycohemoglobin</t>
-  </si>
-  <si>
-    <t>P_GHB</t>
-  </si>
-  <si>
     <t>LBDHDD_Direct_HDL_Cholesterol_mg_dL</t>
   </si>
   <si>
@@ -2051,13 +2091,724 @@
   </si>
   <si>
     <t>Thiazolidinedione (TZD)</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>P_DEMO__SDDSRVYR_Data_release_cycle</t>
+  </si>
+  <si>
+    <t>P_DEMO__RIDSTATR_Interview_Examination_status</t>
+  </si>
+  <si>
+    <t>P_DEMO__RIAGENDR_Gender</t>
+  </si>
+  <si>
+    <t>P_DEMO__RIDAGEYR_Age_in_years_at_screening</t>
+  </si>
+  <si>
+    <t>P_DEMO__RIDRETH3_Race_Hispanic_origin_w_NH_Asian</t>
+  </si>
+  <si>
+    <t>P_DEMO__RIDEXMON_Six_month_time_period</t>
+  </si>
+  <si>
+    <t>P_DEMO__DMDBORN4_Country_of_birth</t>
+  </si>
+  <si>
+    <t>P_DEMO__DMDEDUC2_Education_level_Adults_20</t>
+  </si>
+  <si>
+    <t>P_DEMO__DMDMARTZ_Marital_status</t>
+  </si>
+  <si>
+    <t>P_DEMO__INDFMPIR_Ratio_of_family_income_to_poverty</t>
+  </si>
+  <si>
+    <t>P_BMX__BMDSTATS_Body_Measures_Component_Status_Code</t>
+  </si>
+  <si>
+    <t>P_BMX__BMXWT_Weight_kg</t>
+  </si>
+  <si>
+    <t>P_BMX__BMXHT_Standing_Height_cm</t>
+  </si>
+  <si>
+    <t>P_BMX__BMXBMI_Body_Mass_Index_kg_m_2</t>
+  </si>
+  <si>
+    <t>P_BMX__BMXLEG_Upper_Leg_Length_cm</t>
+  </si>
+  <si>
+    <t>P_BMX__BMXARML_Upper_Arm_Length_cm</t>
+  </si>
+  <si>
+    <t>P_BMX__BMXARMC_Arm_Circumference_cm</t>
+  </si>
+  <si>
+    <t>P_BMX__BMXWAIST_Waist_Circumference_cm</t>
+  </si>
+  <si>
+    <t>P_BMX__BMXHIP_Hip_Circumference_cm</t>
+  </si>
+  <si>
+    <t>P_BPXO__BPAOARM_Arm_selected_oscillometric</t>
+  </si>
+  <si>
+    <t>P_BPXO__BPAOCSZ_Coded_cuff_size_oscillometric</t>
+  </si>
+  <si>
+    <t>P_BPXO__BPXOSY1_Systolic_1st_oscillometric_reading</t>
+  </si>
+  <si>
+    <t>P_BPXO__BPXODI1_Diastolic_1st_oscillometric_reading</t>
+  </si>
+  <si>
+    <t>P_BPXO__BPXOSY2_Systolic_2nd_oscillometric_reading</t>
+  </si>
+  <si>
+    <t>P_BPXO__BPXODI2_Diastolic_2nd_oscillometric_reading</t>
+  </si>
+  <si>
+    <t>P_BPXO__BPXOSY3_Systolic_3rd_oscillometric_reading</t>
+  </si>
+  <si>
+    <t>P_BPXO__BPXODI3_Diastolic_3rd_oscillometric_reading</t>
+  </si>
+  <si>
+    <t>P_BPXO__BPXOPLS1_Pulse_1st_oscillometric_reading</t>
+  </si>
+  <si>
+    <t>P_BPXO__BPXOPLS2_Pulse_2nd_oscillometric_reading</t>
+  </si>
+  <si>
+    <t>P_BPXO__BPXOPLS3_Pulse_3rd_oscillometric_reading</t>
+  </si>
+  <si>
+    <t>P_LUX__LUXSMED_Median_stiffness_E_kilopascals_kPa</t>
+  </si>
+  <si>
+    <t>P_LUX__LUXCAPM_Median_CAP_decibels_per_meter_dB_m</t>
+  </si>
+  <si>
+    <t>P_OHXDEN__OHDEXSTS_Overall_Oral_Health_Exam_Status</t>
+  </si>
+  <si>
+    <t>P_OHXDEN__OHDDESTS_Dentition_Status_Code</t>
+  </si>
+  <si>
+    <t>P_OHXDEN__OHXIMP_Dental_Implant_yes_no</t>
+  </si>
+  <si>
+    <t>P_OHXDEN__OHXRCAR_Root_caries</t>
+  </si>
+  <si>
+    <t>P_OHXDEN__OHXRCARO_Other_non_carious_root_lesion</t>
+  </si>
+  <si>
+    <t>P_OHXDEN__OHXRRES_Root_caries_restoration</t>
+  </si>
+  <si>
+    <t>P_OHXDEN__OHXRRESO_Other_non_carious_root_restoration</t>
+  </si>
+  <si>
+    <t>P_OHXREF__OHDEXSTS_Overall_Oral_Health_Exam_Status</t>
+  </si>
+  <si>
+    <t>P_ALB_CR__URXUMS_Albumin_urine_mg_L</t>
+  </si>
+  <si>
+    <t>P_ALB_CR__URXCRS_Creatinine_urine_umol_L</t>
+  </si>
+  <si>
+    <t>P_ALB_CR__URDACT_Albumin_creatinine_ratio_mg_g</t>
+  </si>
+  <si>
+    <t>P_BIOPRO__LBXSATSI_Alanine_Aminotransferase_ALT_U_L</t>
+  </si>
+  <si>
+    <t>P_BIOPRO__LBXSAL_Albumin_refrigerated_serum_g_dL</t>
+  </si>
+  <si>
+    <t>P_BIOPRO__LBXSAPSI_Alkaline_Phosphatase_ALP_IU_L</t>
+  </si>
+  <si>
+    <t>P_BIOPRO__LBXSC3SI_Bicarbonate_mmol_L</t>
+  </si>
+  <si>
+    <t>P_BIOPRO__LBDSBUSI_Blood_Urea_Nitrogen_mmol_L</t>
+  </si>
+  <si>
+    <t>P_BIOPRO__LBXSCLSI_Chloride_mmol_L</t>
+  </si>
+  <si>
+    <t>P_BIOPRO__LBXSCK_Creatine_Phosphokinase_CPK_IU_L</t>
+  </si>
+  <si>
+    <t>P_BIOPRO__LBDSCRSI_Creatinine_refrigerated_serum_umol_L</t>
+  </si>
+  <si>
+    <t>P_BIOPRO__LBDSGBSI_Globulin_g_L</t>
+  </si>
+  <si>
+    <t>P_BIOPRO__LBXSGTSI_Gamma_Glutamyl_Transferase_GGT_IU_L</t>
+  </si>
+  <si>
+    <t>P_BIOPRO__LBDSIRSI_Iron_refrigerated_serum_umol_L</t>
+  </si>
+  <si>
+    <t>P_BIOPRO__LBXSLDSI_Lactate_Dehydrogenase_LDH_IU_L</t>
+  </si>
+  <si>
+    <t>P_BIOPRO__LBXSOSSI_Osmolality_mmol_Kg</t>
+  </si>
+  <si>
+    <t>P_BIOPRO__LBDSPHSI_Phosphorus_mmol_L</t>
+  </si>
+  <si>
+    <t>P_BIOPRO__LBXSNASI_Sodium_mmol_L</t>
+  </si>
+  <si>
+    <t>P_BIOPRO__LBDSTBSI_Total_Bilirubin_umol_L</t>
+  </si>
+  <si>
+    <t>P_BIOPRO__LBDSCASI_Total_Calcium_mmol_L</t>
+  </si>
+  <si>
+    <t>P_BIOPRO__LBDSCHSI_Cholesterol_refrigerated_serum_mmol_L</t>
+  </si>
+  <si>
+    <t>P_BIOPRO__LBDSTPSI_Total_Protein_g_L</t>
+  </si>
+  <si>
+    <t>P_BIOPRO__LBDSTRSI_Triglycerides_refrig_serum_mmol_L</t>
+  </si>
+  <si>
+    <t>P_BIOPRO__LBDSUASI_Uric_acid_umol_L</t>
+  </si>
+  <si>
+    <t>P_CBC__LBXWBCSI_White_blood_cell_count_1000_cells_uL</t>
+  </si>
+  <si>
+    <t>P_CBC__LBXLYPCT_Lymphocyte_percent</t>
+  </si>
+  <si>
+    <t>P_CBC__LBXMOPCT_Monocyte_percent</t>
+  </si>
+  <si>
+    <t>P_CBC__LBXNEPCT_Segmented_neutrophils_percent</t>
+  </si>
+  <si>
+    <t>P_CBC__LBXEOPCT_Eosinophils_percent</t>
+  </si>
+  <si>
+    <t>P_CBC__LBXBAPCT_Basophils_percent</t>
+  </si>
+  <si>
+    <t>P_CBC__LBDLYMNO_Lymphocyte_number_1000_cells_uL</t>
+  </si>
+  <si>
+    <t>P_CBC__LBDMONO_Monocyte_number_1000_cells_uL</t>
+  </si>
+  <si>
+    <t>P_CBC__LBDNENO_Segmented_neutrophils_num_1000_cell_uL</t>
+  </si>
+  <si>
+    <t>P_CBC__LBDEONO_Eosinophils_number_1000_cells_uL</t>
+  </si>
+  <si>
+    <t>P_CBC__LBDBANO_Basophils_number_1000_cells_uL</t>
+  </si>
+  <si>
+    <t>P_CBC__LBXRBCSI_Red_blood_cell_count_million_cells_uL</t>
+  </si>
+  <si>
+    <t>P_CBC__LBXHGB_Hemoglobin_g_dL</t>
+  </si>
+  <si>
+    <t>P_CBC__LBXHCT_Hematocrit</t>
+  </si>
+  <si>
+    <t>P_CBC__LBXMCVSI_Mean_cell_volume_fL</t>
+  </si>
+  <si>
+    <t>P_CBC__LBXMC_Mean_Cell_Hgb_Conc_g_dL</t>
+  </si>
+  <si>
+    <t>P_CBC__LBXMCHSI_Mean_cell_hemoglobin_pg</t>
+  </si>
+  <si>
+    <t>P_CBC__LBXRDW_Red_cell_distribution_width</t>
+  </si>
+  <si>
+    <t>P_CBC__LBXPLTSI_Platelet_count_1000_cells_uL</t>
+  </si>
+  <si>
+    <t>P_CBC__LBXMPSI_Mean_platelet_volume_fL</t>
+  </si>
+  <si>
+    <t>P_CBC__LBXNRBC_Nucleated_red_blood_cells_100_WBC</t>
+  </si>
+  <si>
+    <t>P_COT__LBXCOT_Cotinine_Serum_ng_mL</t>
+  </si>
+  <si>
+    <t>P_COT__LBXHCOT_Hydroxycotinine_Serum_ng_mL</t>
+  </si>
+  <si>
+    <t>P_FASTQX__PHQ020_Coffee_or_tea_with_cream_or_sugar</t>
+  </si>
+  <si>
+    <t>P_FASTQX__PHQ030_Alcohol_such_as_beer_wine_or_liquor</t>
+  </si>
+  <si>
+    <t>P_FASTQX__PHQ040_Gum_mints_lozenges_or_cough_drops</t>
+  </si>
+  <si>
+    <t>P_FASTQX__PHQ050_Antacids_laxatives_or_anti_diarrheals</t>
+  </si>
+  <si>
+    <t>P_FASTQX__PHQ060_Dietary_supplements</t>
+  </si>
+  <si>
+    <t>P_FASTQX__PHAFSTMN_Total_length_of_food_fast_minutes</t>
+  </si>
+  <si>
+    <t>P_FASTQX__PHDSESN_Session_in_which_SP_was_examined</t>
+  </si>
+  <si>
+    <t>P_FERTIN__LBDFERSI_Ferritin_ug_L</t>
+  </si>
+  <si>
+    <t>P_FETIB__LBDIRNSI_Iron_frozen_Serum_umol_L</t>
+  </si>
+  <si>
+    <t>P_FETIB__LBDUIBSI_UIBC_Serum_umol_L</t>
+  </si>
+  <si>
+    <t>P_FETIB__LBDTIBSI_Tot_Iron_Binding_Capacity_TIBC_umol_L</t>
+  </si>
+  <si>
+    <t>P_FETIB__LBDPCT_Transferrin_Saturation</t>
+  </si>
+  <si>
+    <t>P_HDL__LBDHDDSI_Direct_HDL_Cholesterol_mmol_L</t>
+  </si>
+  <si>
+    <t>P_HEPA__LBXHA_Hepatitis_A_antibody</t>
+  </si>
+  <si>
+    <t>P_HEPBD__LBXHBC_Hepatitis_B_core_antibody</t>
+  </si>
+  <si>
+    <t>P_HEPB_S__LBXHBS_Hepatitis_B_Surface_Antibody</t>
+  </si>
+  <si>
+    <t>P_HEPC__LBXHCR_Hepatitis_C_RNA</t>
+  </si>
+  <si>
+    <t>P_HEPC__LBDHCI_Hepatitis_C_Antibody_confirmed</t>
+  </si>
+  <si>
+    <t>P_HEPE__LBDHEG_Hepatitis_E_IgG_anti_HEV</t>
+  </si>
+  <si>
+    <t>P_HEPE__LBDHEM_Hepatitis_E_IgM_anti_HEV</t>
+  </si>
+  <si>
+    <t>P_HSCRP__LBXHSCRP_HS_C_Reactive_Protein_mg_L</t>
+  </si>
+  <si>
+    <t>P_IHGEM__LBDIHGSI_Mercury_inorganic_nmol_L</t>
+  </si>
+  <si>
+    <t>P_IHGEM__LBDBGESI_Mercury_ethyl_nmol_L</t>
+  </si>
+  <si>
+    <t>P_IHGEM__LBDBGMSI_Mercury_methyl_nmol_L</t>
+  </si>
+  <si>
+    <t>P_PBCD__LBDBPBSI_Blood_lead_umol_L</t>
+  </si>
+  <si>
+    <t>P_PBCD__LBDBCDSI_Blood_cadmium_nmol_L</t>
+  </si>
+  <si>
+    <t>P_PBCD__LBDTHGSI_Blood_mercury_total_nmol_L</t>
+  </si>
+  <si>
+    <t>P_PBCD__LBDBSESI_Blood_selenium_umol_L</t>
+  </si>
+  <si>
+    <t>P_PBCD__LBDBMNSI_Blood_manganese_nmol_L</t>
+  </si>
+  <si>
+    <t>P_TCHOL__LBDTCSI_Total_Cholesterol_mmol_L</t>
+  </si>
+  <si>
+    <t>P_TST__LBD17HSI_17_hydroxyprogesterone_nmol_L</t>
+  </si>
+  <si>
+    <t>P_TST__LBDANDSI_Androstenedione_nmol_L</t>
+  </si>
+  <si>
+    <t>P_TST__LBDESTSI_Estradiol_pmol_L</t>
+  </si>
+  <si>
+    <t>P_TST__LBDESOSI_Estrone_pmol_L</t>
+  </si>
+  <si>
+    <t>P_TST__LBDES1SI_Estrone_Sulfate_pmol_L</t>
+  </si>
+  <si>
+    <t>P_TST__LBXFSH_Follicle_Stimulating_Hormone_mIU_mL</t>
+  </si>
+  <si>
+    <t>P_TST__LBXLUH_Luteinizing_Hormone_mIU_mL</t>
+  </si>
+  <si>
+    <t>P_TST__LBDPG4SI_Progesterone_nmol_L</t>
+  </si>
+  <si>
+    <t>P_TST__LBXSHBG_SHBG_nmol_L</t>
+  </si>
+  <si>
+    <t>P_ALQ__ALQ111_Ever_had_a_drink_of_any_kind_of_alcohol</t>
+  </si>
+  <si>
+    <t>P_ALQ__ALQ121_Past_12_mo_how_often_drink_alcoholic_bev</t>
+  </si>
+  <si>
+    <t>P_ALQ__ALQ151_Ever_have_4_5_or_more_drinks_every_day</t>
+  </si>
+  <si>
+    <t>P_AUQ__AUQ054_General_condition_of_hearing</t>
+  </si>
+  <si>
+    <t>P_BPQ__BPQ020_Ever_told_you_had_high_blood_pressure</t>
+  </si>
+  <si>
+    <t>P_BPQ__BPQ080_Doctor_told_you_high_cholesterol_level</t>
+  </si>
+  <si>
+    <t>P_DBQ__DBQ700_How_healthy_is_the_diet</t>
+  </si>
+  <si>
+    <t>P_DBQ__DBQ197_Past_30_day_milk_product_consumption</t>
+  </si>
+  <si>
+    <t>P_DBQ__DBQ229_Regular_milk_use_5_times_per_week</t>
+  </si>
+  <si>
+    <t>P_DBQ__DBD895_of_meals_not_home_prepared</t>
+  </si>
+  <si>
+    <t>P_DBQ__DBD900_of_meals_from_fast_food_or_pizza_place</t>
+  </si>
+  <si>
+    <t>P_DBQ__DBD905_of_ready_to_eat_foods_in_past_30_days</t>
+  </si>
+  <si>
+    <t>P_DBQ__DBD910_of_frozen_meals_pizza_in_past_30_days</t>
+  </si>
+  <si>
+    <t>P_DBQ__CBQ596_Heard_of_My_Plate</t>
+  </si>
+  <si>
+    <t>P_DBQ__DBQ930_Main_meal_planner_preparer</t>
+  </si>
+  <si>
+    <t>P_DBQ__DBQ935_Shared_meal_planning_preparing_duty</t>
+  </si>
+  <si>
+    <t>P_DBQ__DBQ940_Main_food_shopper</t>
+  </si>
+  <si>
+    <t>P_DBQ__DBQ945_Shared_food_shopping_duty</t>
+  </si>
+  <si>
+    <t>P_DPQ__DPQ010_Have_little_interest_in_doing_things</t>
+  </si>
+  <si>
+    <t>P_DPQ__DPQ020_Feeling_down_depressed_or_hopeless</t>
+  </si>
+  <si>
+    <t>P_DPQ__DPQ030_Trouble_sleeping_or_sleeping_too_much</t>
+  </si>
+  <si>
+    <t>P_DPQ__DPQ040_Feeling_tired_or_having_little_energy</t>
+  </si>
+  <si>
+    <t>P_DPQ__DPQ050_Poor_appetite_or_overeating</t>
+  </si>
+  <si>
+    <t>P_DPQ__DPQ060_Feeling_bad_about_yourself</t>
+  </si>
+  <si>
+    <t>P_DPQ__DPQ070_Trouble_concentrating_on_things</t>
+  </si>
+  <si>
+    <t>P_DPQ__DPQ080_Moving_or_speaking_slowly_or_too_fast</t>
+  </si>
+  <si>
+    <t>P_DPQ__DPQ090_Thoughts_you_would_be_better_off_dead</t>
+  </si>
+  <si>
+    <t>P_FSQ__FSDHH_Household_food_security_category</t>
+  </si>
+  <si>
+    <t>P_FSQ__FSDAD_Adult_food_security_category</t>
+  </si>
+  <si>
+    <t>P_FSQ__FSD151_HH_Emergency_food_received</t>
+  </si>
+  <si>
+    <t>P_FSQ__FSQ165_HH_FS_benefit_ever_received</t>
+  </si>
+  <si>
+    <t>P_FSQ__FSD162_HH_WIC_benefit_receive_in_last_12_month</t>
+  </si>
+  <si>
+    <t>P_HEQ__HEQ010_Ever_told_you_have_Hepatitis_B</t>
+  </si>
+  <si>
+    <t>P_HEQ__HEQ030_Ever_told_you_have_Hepatitis_C</t>
+  </si>
+  <si>
+    <t>P_HIQ__HIQ011_Covered_by_health_insurance</t>
+  </si>
+  <si>
+    <t>P_HIQ__HIQ270_Do_plans_cover_prescriptions</t>
+  </si>
+  <si>
+    <t>P_HIQ__HIQ210_Time_when_no_insurance_in_past_year</t>
+  </si>
+  <si>
+    <t>P_HSQ__HSQ590_Blood_ever_tested_for_HIV_virus</t>
+  </si>
+  <si>
+    <t>P_HUQ__HUQ010_General_health_condition</t>
+  </si>
+  <si>
+    <t>P_HUQ__HUQ030_Routine_place_to_go_for_healthcare</t>
+  </si>
+  <si>
+    <t>P_HUQ__HUQ051_times_receive_healthcare_over_past_year</t>
+  </si>
+  <si>
+    <t>P_HUQ__HUQ071_Overnight_hospital_patient_in_last_year</t>
+  </si>
+  <si>
+    <t>P_HUQ__HUQ090_Seen_mental_health_professional_past_yr</t>
+  </si>
+  <si>
+    <t>P_IMQ__IMQ011_Received_Hepatitis_A_vaccine</t>
+  </si>
+  <si>
+    <t>P_IMQ__IMQ020_Received_Hepatitis_B_3_dose_series</t>
+  </si>
+  <si>
+    <t>P_INQ__INDFMMPI_Family_monthly_poverty_level_index</t>
+  </si>
+  <si>
+    <t>P_INQ__INDFMMPC_Family_monthly_poverty_level_category</t>
+  </si>
+  <si>
+    <t>P_KIQ_U__KIQ022_Ever_told_you_had_weak_failing_kidneys</t>
+  </si>
+  <si>
+    <t>P_KIQ_U__KIQ026_Ever_had_kidney_stones</t>
+  </si>
+  <si>
+    <t>P_KIQ_U__KIQ005_How_often_have_urinary_leakage</t>
+  </si>
+  <si>
+    <t>P_KIQ_U__KIQ042_Leak_urine_during_physical_activities</t>
+  </si>
+  <si>
+    <t>P_KIQ_U__KIQ044_Urinated_before_reaching_the_toilet</t>
+  </si>
+  <si>
+    <t>P_KIQ_U__KIQ046_Leak_urine_during_nonphysical_activities</t>
+  </si>
+  <si>
+    <t>P_KIQ_U__KIQ480_How_many_times_urinate_in_night</t>
+  </si>
+  <si>
+    <t>P_MCQ__MCQ010_Ever_been_told_you_have_asthma</t>
+  </si>
+  <si>
+    <t>P_MCQ__MCQ053_Taking_treatment_for_anemia_past_3_mos</t>
+  </si>
+  <si>
+    <t>P_MCQ__MCQ080_Doctor_ever_said_you_were_overweight</t>
+  </si>
+  <si>
+    <t>P_MCQ__MCQ092_Ever_receive_blood_transfusion</t>
+  </si>
+  <si>
+    <t>P_MCQ__MCQ520_Abdominal_pain_during_past_12_months</t>
+  </si>
+  <si>
+    <t>P_MCQ__MCQ550_Has_DR_ever_said_you_have_gallstones</t>
+  </si>
+  <si>
+    <t>P_MCQ__MCQ560_Ever_had_gallbladder_surgery</t>
+  </si>
+  <si>
+    <t>P_MCQ__MCQ220_Ever_told_you_had_cancer_or_malignancy</t>
+  </si>
+  <si>
+    <t>P_OCQ__OCD150_Type_of_work_done_last_week</t>
+  </si>
+  <si>
+    <t>P_OHQ__OHQ030_When_did_you_last_visit_a_dentist</t>
+  </si>
+  <si>
+    <t>P_OHQ__OHQ033_Main_reason_for_last_dental_visit</t>
+  </si>
+  <si>
+    <t>P_OHQ__OHQ770_Past_yr_need_dental_but_couldn_t_get_it</t>
+  </si>
+  <si>
+    <t>P_OHQ__OHQ845_Rate_the_health_of_your_teeth_and_gums</t>
+  </si>
+  <si>
+    <t>P_PAQ__PAQ605_Vigorous_work_activity</t>
+  </si>
+  <si>
+    <t>P_PAQ__PAQ620_Moderate_work_activity</t>
+  </si>
+  <si>
+    <t>P_PAQ__PAQ635_Walk_or_bicycle</t>
+  </si>
+  <si>
+    <t>P_PAQ__PAQ650_Vigorous_recreational_activities</t>
+  </si>
+  <si>
+    <t>P_PAQ__PAQ665_Moderate_recreational_activities</t>
+  </si>
+  <si>
+    <t>P_PAQ__PAD680_Minutes_sedentary_activity</t>
+  </si>
+  <si>
+    <t>P_PUQMEC__PUQ100_Products_used_in_home_to_control_insects</t>
+  </si>
+  <si>
+    <t>P_PUQMEC__PUQ110_Products_used_to_kill_weeds</t>
+  </si>
+  <si>
+    <t>P_SLQ__SLQ300_Usual_sleep_time_on_weekdays_or_workdays</t>
+  </si>
+  <si>
+    <t>P_SLQ__SLQ310_Usual_wake_time_on_weekdays_or_workdays</t>
+  </si>
+  <si>
+    <t>P_SLQ__SLD012_Sleep_hours_weekdays_or_workdays</t>
+  </si>
+  <si>
+    <t>P_SLQ__SLQ320_Usual_sleep_time_on_weekends</t>
+  </si>
+  <si>
+    <t>P_SLQ__SLQ330_Usual_wake_time_on_weekends</t>
+  </si>
+  <si>
+    <t>P_SLQ__SLD013_Sleep_hours_weekends</t>
+  </si>
+  <si>
+    <t>P_SLQ__SLQ030_How_often_do_you_snore</t>
+  </si>
+  <si>
+    <t>P_SLQ__SLQ040_How_often_do_you_snort_or_stop_breathing</t>
+  </si>
+  <si>
+    <t>P_SLQ__SLQ050_Ever_told_doctor_had_trouble_sleeping</t>
+  </si>
+  <si>
+    <t>P_SLQ__SLQ120_How_often_feel_overly_sleepy_during_day</t>
+  </si>
+  <si>
+    <t>P_SMQ__SMQ020_Smoked_at_least_100_cigarettes_in_life</t>
+  </si>
+  <si>
+    <t>P_SMQFAM__SMD460_of_people_who_live_here_smoke_tobacco</t>
+  </si>
+  <si>
+    <t>P_SMQRTU__SMQ681_Smoked_tobacco_last_5_days</t>
+  </si>
+  <si>
+    <t>P_SMQRTU__SMQ851_Used_smokeless_tobacco_last_5_days</t>
+  </si>
+  <si>
+    <t>P_SMQRTU__SMQ863_Used_nicotine_replacement_last_5_days</t>
+  </si>
+  <si>
+    <t>P_SMQRTU__SMDANY_Used_any_tobacco_product_last_5_days</t>
+  </si>
+  <si>
+    <t>P_SMQSHS__SMQ856_Last_7_d_worked_at_job_not_at_home</t>
+  </si>
+  <si>
+    <t>P_SMQSHS__SMQ860_Last_7_d_spent_time_in_a_restaurant</t>
+  </si>
+  <si>
+    <t>P_SMQSHS__SMQ866_Last_7_d_spent_time_in_a_bar</t>
+  </si>
+  <si>
+    <t>P_SMQSHS__SMQ870_Last_7_d_rode_in_a_car</t>
+  </si>
+  <si>
+    <t>P_SMQSHS__SMQ872_Last_7_d_someone_smoked_in_car</t>
+  </si>
+  <si>
+    <t>P_SMQSHS__SMQ874_Last_7_d_spent_time_in_another_home</t>
+  </si>
+  <si>
+    <t>P_SMQSHS__SMQ878_Last_7_d_in_other_indoor_area</t>
+  </si>
+  <si>
+    <t>P_SMQSHS__SMQ940_Last_7_d_someone_used_e_cigs_indoors</t>
+  </si>
+  <si>
+    <t>P_WHQ__WHD010_Current_self_reported_height_inches</t>
+  </si>
+  <si>
+    <t>P_WHQ__WHD020_Current_self_reported_weight_pounds</t>
+  </si>
+  <si>
+    <t>P_WHQ__WHQ030_How_do_you_consider_your_weight</t>
+  </si>
+  <si>
+    <t>P_WHQ__WHQ040_Like_to_weigh_more_less_or_same</t>
+  </si>
+  <si>
+    <t>P_WHQ__WHD050_Self_reported_weight_1_yr_ago_pounds</t>
+  </si>
+  <si>
+    <t>P_WHQ__WHQ070_Tried_to_lose_weight_in_past_year</t>
+  </si>
+  <si>
+    <t>P_WHQ__WHQ225_Times_lost_10_lbs_or_more_to_lose_weight</t>
+  </si>
+  <si>
+    <t>P_WHQ__WHD120_Self_reported_weight_age_25_pounds</t>
+  </si>
+  <si>
+    <t>P_WHQ__WHD140_Self_reported_greatest_weight_pounds</t>
+  </si>
+  <si>
+    <t>P_WHQ__WHQ150_Age_when_heaviest_weight</t>
+  </si>
+  <si>
+    <t>This needs to be merged since collinear. Merged to median.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2099,7 +2850,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2668,7 +3426,15 @@
     <text>Please double check, this is oral data?
 Leakage: when feature is direct proxy of target.</text>
   </threadedComment>
-  <threadedComment ref="A437" dT="2025-11-06T05:03:13.09" personId="{C0C6EDEC-C948-4067-B22E-4FF313B2EF9C}" id="{F4916A3A-E8CD-4423-A4E2-599BD1AE2B10}">
+  <threadedComment ref="A436" dT="2025-11-06T05:03:13.09" personId="{C0C6EDEC-C948-4067-B22E-4FF313B2EF9C}" id="{F4916A3A-E8CD-4423-A4E2-599BD1AE2B10}">
+    <text>This one, we can bring this on slide.. If the model intends to make an individual prediction, this shouldn’t be used due to ethical issues.. However, for policy-making, this is useful.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A176" dT="2025-11-06T05:03:13.09" personId="{C0C6EDEC-C948-4067-B22E-4FF313B2EF9C}" id="{E620B3FC-45E1-435D-91C9-D8386002AF21}">
     <text>This one, we can bring this on slide.. If the model intends to make an individual prediction, this shouldn’t be used due to ethical issues.. However, for policy-making, this is useful.</text>
   </threadedComment>
 </ThreadedComments>
@@ -2676,13 +3442,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I531"/>
+  <dimension ref="A1:I530"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B468" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D479" sqref="D479"/>
+      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3197,7 +3963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -3211,7 +3977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -3225,7 +3991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -3239,7 +4005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -3253,7 +4019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -3267,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -3281,7 +4047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -3295,7 +4061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -3308,8 +4074,11 @@
       <c r="D40" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="8" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -3322,8 +4091,11 @@
       <c r="D41" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="8" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -3336,8 +4108,11 @@
       <c r="D42" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="8" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -3350,8 +4125,11 @@
       <c r="D43" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="8" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -3364,8 +4142,11 @@
       <c r="D44" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="8" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -3378,8 +4159,11 @@
       <c r="D45" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="8" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -3392,8 +4176,11 @@
       <c r="D46" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="8" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -3406,8 +4193,11 @@
       <c r="D47" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="8" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -3419,6 +4209,9 @@
       </c>
       <c r="D48" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -7856,35 +8649,32 @@
         <v>0</v>
       </c>
       <c r="E321" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B322" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C322" t="b">
         <v>0</v>
       </c>
       <c r="D322" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E322" t="s">
-        <v>380</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
+        <v>380</v>
+      </c>
+      <c r="B323" t="s">
         <v>381</v>
       </c>
-      <c r="B323" t="s">
-        <v>379</v>
-      </c>
       <c r="C323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D323" s="1" t="b">
         <v>1</v>
@@ -7917,22 +8707,22 @@
       <c r="D325" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E325" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B326" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C326" t="b">
         <v>1</v>
       </c>
       <c r="D326" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="E326" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -7940,30 +8730,30 @@
         <v>389</v>
       </c>
       <c r="B327" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C327" t="b">
         <v>1</v>
       </c>
       <c r="D327" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E327" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
+        <v>390</v>
+      </c>
+      <c r="B328" t="s">
         <v>391</v>
       </c>
-      <c r="B328" t="s">
-        <v>390</v>
-      </c>
       <c r="C328" t="b">
         <v>1</v>
       </c>
       <c r="D328" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="E328" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -7971,30 +8761,30 @@
         <v>392</v>
       </c>
       <c r="B329" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C329" t="b">
         <v>1</v>
       </c>
       <c r="D329" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E329" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
+        <v>393</v>
+      </c>
+      <c r="B330" t="s">
         <v>394</v>
       </c>
-      <c r="B330" t="s">
-        <v>393</v>
-      </c>
       <c r="C330" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D330" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="E330" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -8002,13 +8792,16 @@
         <v>395</v>
       </c>
       <c r="B331" t="s">
+        <v>394</v>
+      </c>
+      <c r="C331" t="b">
+        <v>1</v>
+      </c>
+      <c r="D331" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E331" t="s">
         <v>396</v>
-      </c>
-      <c r="C331" t="b">
-        <v>0</v>
-      </c>
-      <c r="D331" s="1" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -8016,64 +8809,64 @@
         <v>397</v>
       </c>
       <c r="B332" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C332" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D332" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E332" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B333" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C333" t="b">
         <v>0</v>
       </c>
       <c r="D333" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E333" t="s">
-        <v>401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B334" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C334" t="b">
         <v>0</v>
       </c>
       <c r="D334" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E334" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>402</v>
+      </c>
+      <c r="B335" t="s">
+        <v>398</v>
+      </c>
+      <c r="C335" t="b">
+        <v>0</v>
+      </c>
+      <c r="D335" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E335" t="s">
         <v>403</v>
-      </c>
-      <c r="B335" t="s">
-        <v>400</v>
-      </c>
-      <c r="C335" t="b">
-        <v>0</v>
-      </c>
-      <c r="D335" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E335" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -8081,47 +8874,47 @@
         <v>404</v>
       </c>
       <c r="B336" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C336" t="b">
         <v>0</v>
       </c>
       <c r="D336" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E336" t="s">
-        <v>405</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B337" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C337" t="b">
         <v>0</v>
       </c>
       <c r="D337" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E337" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
+        <v>406</v>
+      </c>
+      <c r="B338" t="s">
+        <v>398</v>
+      </c>
+      <c r="C338" t="b">
+        <v>0</v>
+      </c>
+      <c r="D338" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E338" t="s">
         <v>407</v>
-      </c>
-      <c r="B338" t="s">
-        <v>400</v>
-      </c>
-      <c r="C338" t="b">
-        <v>0</v>
-      </c>
-      <c r="D338" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E338" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -8129,39 +8922,39 @@
         <v>408</v>
       </c>
       <c r="B339" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C339" t="b">
         <v>0</v>
       </c>
       <c r="D339" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E339" t="s">
-        <v>409</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B340" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C340" t="b">
         <v>0</v>
       </c>
       <c r="D340" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E340" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
+        <v>410</v>
+      </c>
+      <c r="B341" t="s">
         <v>411</v>
       </c>
-      <c r="B341" t="s">
-        <v>400</v>
-      </c>
       <c r="C341" t="b">
         <v>0</v>
       </c>
@@ -8169,55 +8962,55 @@
         <v>0</v>
       </c>
       <c r="E341" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B342" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C342" t="b">
         <v>0</v>
       </c>
       <c r="D342" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E342" t="s">
-        <v>414</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B343" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C343" t="b">
         <v>0</v>
       </c>
       <c r="D343" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E343" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>415</v>
+      </c>
+      <c r="B344" t="s">
+        <v>411</v>
+      </c>
+      <c r="C344" t="b">
+        <v>0</v>
+      </c>
+      <c r="D344" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E344" t="s">
         <v>416</v>
-      </c>
-      <c r="B344" t="s">
-        <v>413</v>
-      </c>
-      <c r="C344" t="b">
-        <v>0</v>
-      </c>
-      <c r="D344" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E344" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -8225,38 +9018,38 @@
         <v>417</v>
       </c>
       <c r="B345" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C345" t="b">
         <v>0</v>
       </c>
       <c r="D345" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E345" t="s">
-        <v>418</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B346" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C346" t="b">
         <v>0</v>
       </c>
       <c r="D346" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E346" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B347" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C347" t="b">
         <v>0</v>
@@ -8264,48 +9057,49 @@
       <c r="D347" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E347" t="s">
-        <v>418</v>
+      <c r="E347" t="str">
+        <f>"collinear with "&amp;A348</f>
+        <v>collinear with LBDTHGSI_Blood_mercury_total_nmol_L</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B348" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C348" t="b">
         <v>0</v>
       </c>
       <c r="D348" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E348" t="str">
-        <f>"collinear with "&amp;A349</f>
-        <v>collinear with LBDTHGSI_Blood_mercury_total_nmol_L</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B349" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C349" t="b">
         <v>0</v>
       </c>
       <c r="D349" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E349" t="str">
+        <f>"collinear with "&amp;A348</f>
+        <v>collinear with LBDTHGSI_Blood_mercury_total_nmol_L</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B350" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C350" t="b">
         <v>0</v>
@@ -8314,48 +9108,48 @@
         <v>0</v>
       </c>
       <c r="E350" t="str">
-        <f>"collinear with "&amp;A349</f>
-        <v>collinear with LBDTHGSI_Blood_mercury_total_nmol_L</v>
+        <f>"collinear with "&amp;A351</f>
+        <v>collinear with LBDBSESI_Blood_selenium_umol_L</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B351" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C351" t="b">
         <v>0</v>
       </c>
       <c r="D351" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E351" t="str">
-        <f>"collinear with "&amp;A352</f>
-        <v>collinear with LBDBSESI_Blood_selenium_umol_L</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B352" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C352" t="b">
         <v>0</v>
       </c>
       <c r="D352" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E352" t="str">
+        <f>"collinear with "&amp;A351</f>
+        <v>collinear with LBDBSESI_Blood_selenium_umol_L</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B353" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C353" t="b">
         <v>0</v>
@@ -8364,49 +9158,49 @@
         <v>0</v>
       </c>
       <c r="E353" t="str">
-        <f>"collinear with "&amp;A352</f>
-        <v>collinear with LBDBSESI_Blood_selenium_umol_L</v>
+        <f>"collinear with "&amp;A354</f>
+        <v>collinear with LBDBMNSI_Blood_manganese_nmol_L</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B354" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C354" t="b">
         <v>0</v>
       </c>
       <c r="D354" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E354" t="str">
-        <f>"collinear with "&amp;A355</f>
-        <v>collinear with LBDBMNSI_Blood_manganese_nmol_L</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B355" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C355" t="b">
         <v>0</v>
       </c>
       <c r="D355" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E355" t="str">
+        <f>"collinear with "&amp;A354</f>
+        <v>collinear with LBDBMNSI_Blood_manganese_nmol_L</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
+        <v>428</v>
+      </c>
+      <c r="B356" t="s">
         <v>429</v>
       </c>
-      <c r="B356" t="s">
-        <v>413</v>
-      </c>
       <c r="C356" t="b">
         <v>0</v>
       </c>
@@ -8414,8 +9208,8 @@
         <v>0</v>
       </c>
       <c r="E356" t="str">
-        <f>"collinear with "&amp;A355</f>
-        <v>collinear with LBDBMNSI_Blood_manganese_nmol_L</v>
+        <f>"collinear with "&amp;A357</f>
+        <v>collinear with LBDTCSI_Total_Cholesterol_mmol_L</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -8423,39 +9217,38 @@
         <v>430</v>
       </c>
       <c r="B357" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C357" t="b">
         <v>0</v>
       </c>
       <c r="D357" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E357" t="str">
-        <f>"collinear with "&amp;A358</f>
-        <v>collinear with LBDTCSI_Total_Cholesterol_mmol_L</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
+        <v>431</v>
+      </c>
+      <c r="B358" t="s">
         <v>432</v>
       </c>
-      <c r="B358" t="s">
-        <v>431</v>
-      </c>
       <c r="C358" t="b">
         <v>0</v>
       </c>
       <c r="D358" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E358" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B359" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C359" t="b">
         <v>0</v>
@@ -8463,48 +9256,49 @@
       <c r="D359" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E359" t="s">
-        <v>435</v>
+      <c r="E359" t="str">
+        <f>"collinear with "&amp;A360</f>
+        <v>collinear with LBD17HSI_17_hydroxyprogesterone_nmol_L</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B360" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C360" t="b">
         <v>0</v>
       </c>
       <c r="D360" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E360" t="str">
-        <f>"collinear with "&amp;A361</f>
-        <v>collinear with LBD17HSI_17_hydroxyprogesterone_nmol_L</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B361" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C361" t="b">
         <v>0</v>
       </c>
       <c r="D361" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E361" t="str">
+        <f>"collinear with "&amp;A360</f>
+        <v>collinear with LBD17HSI_17_hydroxyprogesterone_nmol_L</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B362" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C362" t="b">
         <v>0</v>
@@ -8513,48 +9307,48 @@
         <v>0</v>
       </c>
       <c r="E362" t="str">
-        <f>"collinear with "&amp;A361</f>
-        <v>collinear with LBD17HSI_17_hydroxyprogesterone_nmol_L</v>
+        <f>"collinear with "&amp;A363</f>
+        <v>collinear with LBDANDSI_Androstenedione_nmol_L</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B363" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C363" t="b">
         <v>0</v>
       </c>
       <c r="D363" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E363" t="str">
-        <f>"collinear with "&amp;A364</f>
-        <v>collinear with LBDANDSI_Androstenedione_nmol_L</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B364" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C364" t="b">
         <v>0</v>
       </c>
       <c r="D364" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E364" t="str">
+        <f>"collinear with "&amp;A363</f>
+        <v>collinear with LBDANDSI_Androstenedione_nmol_L</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B365" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C365" t="b">
         <v>0</v>
@@ -8563,48 +9357,48 @@
         <v>0</v>
       </c>
       <c r="E365" t="str">
-        <f>"collinear with "&amp;A364</f>
-        <v>collinear with LBDANDSI_Androstenedione_nmol_L</v>
+        <f>"collinear with "&amp;A366</f>
+        <v>collinear with LBDESTSI_Estradiol_pmol_L</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B366" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C366" t="b">
         <v>0</v>
       </c>
       <c r="D366" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E366" t="str">
-        <f>"collinear with "&amp;A367</f>
-        <v>collinear with LBDESTSI_Estradiol_pmol_L</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B367" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C367" t="b">
         <v>0</v>
       </c>
       <c r="D367" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E367" t="str">
+        <f>"collinear with "&amp;A366</f>
+        <v>collinear with LBDESTSI_Estradiol_pmol_L</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B368" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C368" t="b">
         <v>0</v>
@@ -8613,48 +9407,48 @@
         <v>0</v>
       </c>
       <c r="E368" t="str">
-        <f>"collinear with "&amp;A367</f>
-        <v>collinear with LBDESTSI_Estradiol_pmol_L</v>
+        <f>"collinear with "&amp;A369</f>
+        <v>collinear with LBDESOSI_Estrone_pmol_L</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B369" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C369" t="b">
         <v>0</v>
       </c>
       <c r="D369" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E369" t="str">
-        <f>"collinear with "&amp;A370</f>
-        <v>collinear with LBDESOSI_Estrone_pmol_L</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B370" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C370" t="b">
         <v>0</v>
       </c>
       <c r="D370" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E370" t="str">
+        <f>"collinear with "&amp;A369</f>
+        <v>collinear with LBDESOSI_Estrone_pmol_L</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B371" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C371" t="b">
         <v>0</v>
@@ -8663,112 +9457,112 @@
         <v>0</v>
       </c>
       <c r="E371" t="str">
-        <f>"collinear with "&amp;A370</f>
-        <v>collinear with LBDESOSI_Estrone_pmol_L</v>
+        <f>"collinear with "&amp;A372</f>
+        <v>collinear with LBDES1SI_Estrone_Sulfate_pmol_L</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B372" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C372" t="b">
         <v>0</v>
       </c>
       <c r="D372" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E372" t="str">
-        <f>"collinear with "&amp;A373</f>
-        <v>collinear with LBDES1SI_Estrone_Sulfate_pmol_L</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B373" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C373" t="b">
         <v>0</v>
       </c>
       <c r="D373" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E373" t="str">
+        <f>"collinear with "&amp;A372</f>
+        <v>collinear with LBDES1SI_Estrone_Sulfate_pmol_L</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B374" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C374" t="b">
         <v>0</v>
       </c>
       <c r="D374" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E374" t="str">
-        <f>"collinear with "&amp;A373</f>
-        <v>collinear with LBDES1SI_Estrone_Sulfate_pmol_L</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B375" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C375" t="b">
         <v>0</v>
       </c>
       <c r="D375" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E375" t="str">
+        <f>"collinear with "&amp;A374</f>
+        <v>collinear with LBXFSH_Follicle_Stimulating_Hormone_mIU_mL</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B376" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C376" t="b">
         <v>0</v>
       </c>
       <c r="D376" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E376" t="str">
-        <f>"collinear with "&amp;A375</f>
-        <v>collinear with LBXFSH_Follicle_Stimulating_Hormone_mIU_mL</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B377" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C377" t="b">
         <v>0</v>
       </c>
       <c r="D377" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E377" t="str">
+        <f>"collinear with "&amp;A376</f>
+        <v>collinear with LBXLUH_Luteinizing_Hormone_mIU_mL</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B378" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C378" t="b">
         <v>0</v>
@@ -8777,115 +9571,114 @@
         <v>0</v>
       </c>
       <c r="E378" t="str">
-        <f>"collinear with "&amp;A377</f>
-        <v>collinear with LBXLUH_Luteinizing_Hormone_mIU_mL</v>
+        <f>"collinear with "&amp;A379</f>
+        <v>collinear with LBDPG4SI_Progesterone_nmol_L</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B379" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C379" t="b">
         <v>0</v>
       </c>
       <c r="D379" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E379" t="str">
-        <f>"collinear with "&amp;A380</f>
-        <v>collinear with LBDPG4SI_Progesterone_nmol_L</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B380" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C380" t="b">
         <v>0</v>
       </c>
       <c r="D380" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E380" t="str">
+        <f>"collinear with "&amp;A379</f>
+        <v>collinear with LBDPG4SI_Progesterone_nmol_L</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B381" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C381" t="b">
         <v>0</v>
       </c>
       <c r="D381" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E381" t="str">
-        <f>"collinear with "&amp;A380</f>
-        <v>collinear with LBDPG4SI_Progesterone_nmol_L</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B382" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C382" t="b">
         <v>0</v>
       </c>
       <c r="D382" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E382" t="str">
+        <f>"collinear with "&amp;A381</f>
+        <v>collinear with LBXSHBG_SHBG_nmol_L</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>458</v>
+      </c>
+      <c r="B383" t="s">
         <v>459</v>
       </c>
-      <c r="B383" t="s">
-        <v>434</v>
-      </c>
       <c r="C383" t="b">
         <v>0</v>
       </c>
       <c r="D383" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E383" t="str">
-        <f>"collinear with "&amp;A382</f>
-        <v>collinear with LBXSHBG_SHBG_nmol_L</v>
+      <c r="E383" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>461</v>
+      </c>
+      <c r="B384" t="s">
+        <v>459</v>
+      </c>
+      <c r="C384" t="b">
+        <v>0</v>
+      </c>
+      <c r="D384" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E384" t="s">
         <v>460</v>
-      </c>
-      <c r="B384" t="s">
-        <v>461</v>
-      </c>
-      <c r="C384" t="b">
-        <v>0</v>
-      </c>
-      <c r="D384" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E384" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B385" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C385" t="b">
         <v>0</v>
@@ -8894,24 +9687,21 @@
         <v>0</v>
       </c>
       <c r="E385" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
+        <v>463</v>
+      </c>
+      <c r="B386" t="s">
         <v>464</v>
       </c>
-      <c r="B386" t="s">
-        <v>461</v>
-      </c>
       <c r="C386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D386" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E386" t="s">
-        <v>462</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
@@ -8919,7 +9709,7 @@
         <v>465</v>
       </c>
       <c r="B387" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C387" t="b">
         <v>1</v>
@@ -8930,10 +9720,10 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B388" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C388" t="b">
         <v>1</v>
@@ -8944,10 +9734,10 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
+        <v>467</v>
+      </c>
+      <c r="B389" t="s">
         <v>468</v>
-      </c>
-      <c r="B389" t="s">
-        <v>466</v>
       </c>
       <c r="C389" t="b">
         <v>1</v>
@@ -8969,13 +9759,16 @@
       <c r="D390" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E390" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B391" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C391" t="b">
         <v>1</v>
@@ -8992,16 +9785,16 @@
         <v>474</v>
       </c>
       <c r="B392" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C392" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D392" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E392" t="s">
-        <v>475</v>
+        <v>433</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
@@ -9012,13 +9805,10 @@
         <v>477</v>
       </c>
       <c r="C393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D393" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E393" t="s">
-        <v>435</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
@@ -9026,7 +9816,7 @@
         <v>478</v>
       </c>
       <c r="B394" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C394" t="b">
         <v>1</v>
@@ -9037,16 +9827,19 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
+        <v>479</v>
+      </c>
+      <c r="B395" t="s">
+        <v>477</v>
+      </c>
+      <c r="C395" t="b">
+        <v>1</v>
+      </c>
+      <c r="D395" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E395" t="s">
         <v>480</v>
-      </c>
-      <c r="B395" t="s">
-        <v>479</v>
-      </c>
-      <c r="C395" t="b">
-        <v>1</v>
-      </c>
-      <c r="D395" s="1" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
@@ -9054,24 +9847,21 @@
         <v>481</v>
       </c>
       <c r="B396" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C396" t="b">
         <v>1</v>
       </c>
       <c r="D396" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="E396" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B397" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C397" t="b">
         <v>1</v>
@@ -9082,10 +9872,10 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B398" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C398" t="b">
         <v>1</v>
@@ -9096,10 +9886,10 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B399" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C399" t="b">
         <v>1</v>
@@ -9110,10 +9900,10 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B400" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C400" t="b">
         <v>1</v>
@@ -9124,10 +9914,10 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B401" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C401" t="b">
         <v>1</v>
@@ -9138,10 +9928,10 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B402" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C402" t="b">
         <v>1</v>
@@ -9152,10 +9942,10 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B403" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C403" t="b">
         <v>1</v>
@@ -9166,10 +9956,10 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B404" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C404" t="b">
         <v>1</v>
@@ -9180,50 +9970,53 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
+        <v>490</v>
+      </c>
+      <c r="B405" t="s">
         <v>491</v>
       </c>
-      <c r="B405" t="s">
-        <v>479</v>
-      </c>
       <c r="C405" t="b">
         <v>1</v>
       </c>
       <c r="D405" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E405" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
+        <v>493</v>
+      </c>
+      <c r="B406" t="s">
+        <v>491</v>
+      </c>
+      <c r="C406" t="b">
+        <v>1</v>
+      </c>
+      <c r="D406" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E406" t="s">
         <v>492</v>
-      </c>
-      <c r="B406" t="s">
-        <v>493</v>
-      </c>
-      <c r="C406" t="b">
-        <v>1</v>
-      </c>
-      <c r="D406" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E406" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
+        <v>494</v>
+      </c>
+      <c r="B407" t="s">
+        <v>491</v>
+      </c>
+      <c r="C407" t="b">
+        <v>1</v>
+      </c>
+      <c r="D407" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E407" t="s">
         <v>495</v>
-      </c>
-      <c r="B407" t="s">
-        <v>493</v>
-      </c>
-      <c r="C407" t="b">
-        <v>1</v>
-      </c>
-      <c r="D407" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E407" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
@@ -9231,16 +10024,13 @@
         <v>496</v>
       </c>
       <c r="B408" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C408" t="b">
         <v>1</v>
       </c>
       <c r="D408" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E408" t="s">
-        <v>497</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
@@ -9248,7 +10038,7 @@
         <v>498</v>
       </c>
       <c r="B409" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C409" t="b">
         <v>1</v>
@@ -9259,10 +10049,10 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B410" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C410" t="b">
         <v>1</v>
@@ -9273,10 +10063,10 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B411" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C411" t="b">
         <v>1</v>
@@ -9287,10 +10077,10 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B412" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C412" t="b">
         <v>1</v>
@@ -9301,10 +10091,10 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B413" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C413" t="b">
         <v>1</v>
@@ -9315,10 +10105,10 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B414" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C414" t="b">
         <v>1</v>
@@ -9329,10 +10119,10 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B415" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C415" t="b">
         <v>1</v>
@@ -9343,10 +10133,10 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B416" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C416" t="b">
         <v>1</v>
@@ -9357,10 +10147,10 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
+        <v>506</v>
+      </c>
+      <c r="B417" t="s">
         <v>507</v>
-      </c>
-      <c r="B417" t="s">
-        <v>499</v>
       </c>
       <c r="C417" t="b">
         <v>1</v>
@@ -9374,13 +10164,16 @@
         <v>508</v>
       </c>
       <c r="B418" t="s">
+        <v>507</v>
+      </c>
+      <c r="C418" t="b">
+        <v>1</v>
+      </c>
+      <c r="D418" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E418" t="s">
         <v>509</v>
-      </c>
-      <c r="C418" t="b">
-        <v>1</v>
-      </c>
-      <c r="D418" s="1" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
@@ -9388,30 +10181,30 @@
         <v>510</v>
       </c>
       <c r="B419" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C419" t="b">
         <v>1</v>
       </c>
       <c r="D419" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="E419" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
+        <v>511</v>
+      </c>
+      <c r="B420" t="s">
+        <v>507</v>
+      </c>
+      <c r="C420" t="b">
+        <v>1</v>
+      </c>
+      <c r="D420" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E420" t="s">
         <v>512</v>
-      </c>
-      <c r="B420" t="s">
-        <v>509</v>
-      </c>
-      <c r="C420" t="b">
-        <v>1</v>
-      </c>
-      <c r="D420" s="1" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -9419,7 +10212,7 @@
         <v>513</v>
       </c>
       <c r="B421" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C421" t="b">
         <v>1</v>
@@ -9428,24 +10221,21 @@
         <v>1</v>
       </c>
       <c r="E421" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
+        <v>514</v>
+      </c>
+      <c r="B422" t="s">
         <v>515</v>
       </c>
-      <c r="B422" t="s">
-        <v>509</v>
-      </c>
       <c r="C422" t="b">
         <v>1</v>
       </c>
       <c r="D422" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="E422" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -9453,7 +10243,7 @@
         <v>516</v>
       </c>
       <c r="B423" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C423" t="b">
         <v>1</v>
@@ -9464,10 +10254,10 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>517</v>
+      </c>
+      <c r="B424" t="s">
         <v>518</v>
-      </c>
-      <c r="B424" t="s">
-        <v>517</v>
       </c>
       <c r="C424" t="b">
         <v>1</v>
@@ -9481,7 +10271,7 @@
         <v>519</v>
       </c>
       <c r="B425" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C425" t="b">
         <v>1</v>
@@ -9492,10 +10282,10 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B426" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C426" t="b">
         <v>1</v>
@@ -9506,10 +10296,10 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
+        <v>521</v>
+      </c>
+      <c r="B427" t="s">
         <v>522</v>
-      </c>
-      <c r="B427" t="s">
-        <v>520</v>
       </c>
       <c r="C427" t="b">
         <v>1</v>
@@ -9537,7 +10327,7 @@
         <v>525</v>
       </c>
       <c r="B429" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C429" t="b">
         <v>1</v>
@@ -9548,10 +10338,10 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B430" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C430" t="b">
         <v>1</v>
@@ -9562,10 +10352,10 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B431" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C431" t="b">
         <v>1</v>
@@ -9576,10 +10366,10 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B432" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C432" t="b">
         <v>1</v>
@@ -9590,10 +10380,10 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
+        <v>529</v>
+      </c>
+      <c r="B433" t="s">
         <v>530</v>
-      </c>
-      <c r="B433" t="s">
-        <v>526</v>
       </c>
       <c r="C433" t="b">
         <v>1</v>
@@ -9607,7 +10397,7 @@
         <v>531</v>
       </c>
       <c r="B434" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C434" t="b">
         <v>1</v>
@@ -9618,41 +10408,41 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
+        <v>532</v>
+      </c>
+      <c r="B435" t="s">
         <v>533</v>
       </c>
-      <c r="B435" t="s">
-        <v>532</v>
-      </c>
-      <c r="C435" t="b">
-        <v>1</v>
+      <c r="C435" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D435" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E435" s="9" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B436" t="s">
-        <v>535</v>
-      </c>
-      <c r="C436" s="1" t="b">
-        <v>0</v>
+        <v>533</v>
+      </c>
+      <c r="C436" t="b">
+        <v>1</v>
       </c>
       <c r="D436" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="E436" s="9" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
+        <v>536</v>
+      </c>
+      <c r="B437" t="s">
         <v>537</v>
-      </c>
-      <c r="B437" t="s">
-        <v>535</v>
       </c>
       <c r="C437" t="b">
         <v>1</v>
@@ -9666,7 +10456,7 @@
         <v>538</v>
       </c>
       <c r="B438" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C438" t="b">
         <v>1</v>
@@ -9677,10 +10467,10 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B439" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C439" t="b">
         <v>1</v>
@@ -9691,10 +10481,10 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B440" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C440" t="b">
         <v>1</v>
@@ -9705,10 +10495,10 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B441" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C441" t="b">
         <v>1</v>
@@ -9719,10 +10509,10 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B442" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C442" t="b">
         <v>1</v>
@@ -9733,10 +10523,10 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B443" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C443" t="b">
         <v>1</v>
@@ -9747,10 +10537,10 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
+        <v>544</v>
+      </c>
+      <c r="B444" t="s">
         <v>545</v>
-      </c>
-      <c r="B444" t="s">
-        <v>539</v>
       </c>
       <c r="C444" t="b">
         <v>1</v>
@@ -9764,7 +10554,7 @@
         <v>546</v>
       </c>
       <c r="B445" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C445" t="b">
         <v>1</v>
@@ -9775,10 +10565,10 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B446" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C446" t="b">
         <v>1</v>
@@ -9789,10 +10579,10 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B447" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C447" t="b">
         <v>1</v>
@@ -9803,10 +10593,7 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>550</v>
-      </c>
-      <c r="B448" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C448" t="b">
         <v>1</v>
@@ -9817,7 +10604,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C449" t="b">
         <v>1</v>
@@ -9828,7 +10615,7 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C450" t="b">
         <v>1</v>
@@ -9839,7 +10626,7 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C451" t="b">
         <v>1</v>
@@ -9850,7 +10637,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C452" t="b">
         <v>1</v>
@@ -9861,7 +10648,7 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C453" t="b">
         <v>1</v>
@@ -9872,7 +10659,7 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C454" t="b">
         <v>1</v>
@@ -9883,7 +10670,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C455" t="b">
         <v>1</v>
@@ -9894,7 +10681,7 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C456" t="b">
         <v>1</v>
@@ -9905,7 +10692,10 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>559</v>
+        <v>558</v>
+      </c>
+      <c r="B457" t="s">
+        <v>545</v>
       </c>
       <c r="C457" t="b">
         <v>1</v>
@@ -9916,10 +10706,10 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B458" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C458" t="b">
         <v>1</v>
@@ -9930,10 +10720,10 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B459" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C459" t="b">
         <v>1</v>
@@ -9944,10 +10734,10 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B460" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C460" t="b">
         <v>1</v>
@@ -9958,10 +10748,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>563</v>
-      </c>
-      <c r="B461" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C461" t="b">
         <v>1</v>
@@ -9972,7 +10759,7 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C462" t="b">
         <v>1</v>
@@ -9983,7 +10770,7 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C463" t="b">
         <v>1</v>
@@ -9994,7 +10781,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C464" t="b">
         <v>1</v>
@@ -10005,7 +10792,7 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C465" t="b">
         <v>1</v>
@@ -10016,7 +10803,7 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C466" t="b">
         <v>1</v>
@@ -10027,7 +10814,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C467" t="b">
         <v>1</v>
@@ -10038,7 +10825,7 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C468" t="b">
         <v>1</v>
@@ -10049,7 +10836,7 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C469" t="b">
         <v>1</v>
@@ -10060,7 +10847,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C470" t="b">
         <v>1</v>
@@ -10071,7 +10858,7 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C471" t="b">
         <v>1</v>
@@ -10082,6 +10869,9 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
+        <v>573</v>
+      </c>
+      <c r="B472" t="s">
         <v>574</v>
       </c>
       <c r="C472" t="b">
@@ -10110,7 +10900,7 @@
         <v>577</v>
       </c>
       <c r="B474" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C474" t="b">
         <v>1</v>
@@ -10121,10 +10911,10 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B475" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C475" t="b">
         <v>1</v>
@@ -10135,10 +10925,10 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B476" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C476" t="b">
         <v>1</v>
@@ -10149,10 +10939,10 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
+        <v>580</v>
+      </c>
+      <c r="B477" t="s">
         <v>581</v>
-      </c>
-      <c r="B477" t="s">
-        <v>578</v>
       </c>
       <c r="C477" t="b">
         <v>1</v>
@@ -10166,7 +10956,7 @@
         <v>582</v>
       </c>
       <c r="B478" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C478" t="b">
         <v>1</v>
@@ -10177,10 +10967,10 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B479" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C479" t="b">
         <v>1</v>
@@ -10191,10 +10981,10 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B480" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C480" t="b">
         <v>1</v>
@@ -10205,10 +10995,10 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B481" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C481" t="b">
         <v>1</v>
@@ -10219,16 +11009,19 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
+        <v>586</v>
+      </c>
+      <c r="B482" t="s">
+        <v>581</v>
+      </c>
+      <c r="C482" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D482" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E482" s="9" t="s">
         <v>587</v>
-      </c>
-      <c r="B482" t="s">
-        <v>583</v>
-      </c>
-      <c r="C482" t="b">
-        <v>1</v>
-      </c>
-      <c r="D482" s="1" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
@@ -10236,16 +11029,13 @@
         <v>588</v>
       </c>
       <c r="B483" t="s">
-        <v>583</v>
-      </c>
-      <c r="C483" s="1" t="b">
-        <v>0</v>
+        <v>589</v>
+      </c>
+      <c r="C483" t="b">
+        <v>1</v>
       </c>
       <c r="D483" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="E483" s="9" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
@@ -10253,7 +11043,7 @@
         <v>590</v>
       </c>
       <c r="B484" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C484" t="b">
         <v>1</v>
@@ -10264,10 +11054,10 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
+        <v>591</v>
+      </c>
+      <c r="B485" t="s">
         <v>592</v>
-      </c>
-      <c r="B485" t="s">
-        <v>591</v>
       </c>
       <c r="C485" t="b">
         <v>1</v>
@@ -10281,7 +11071,7 @@
         <v>593</v>
       </c>
       <c r="B486" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C486" t="b">
         <v>1</v>
@@ -10292,10 +11082,10 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B487" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C487" t="b">
         <v>1</v>
@@ -10306,10 +11096,10 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B488" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C488" t="b">
         <v>1</v>
@@ -10320,10 +11110,10 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B489" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C489" t="b">
         <v>1</v>
@@ -10334,10 +11124,10 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B490" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C490" t="b">
         <v>1</v>
@@ -10348,10 +11138,10 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B491" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C491" t="b">
         <v>1</v>
@@ -10362,10 +11152,10 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B492" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C492" t="b">
         <v>1</v>
@@ -10376,10 +11166,10 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B493" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C493" t="b">
         <v>1</v>
@@ -10390,10 +11180,10 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B494" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C494" t="b">
         <v>1</v>
@@ -10404,10 +11194,10 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
+        <v>602</v>
+      </c>
+      <c r="B495" t="s">
         <v>603</v>
-      </c>
-      <c r="B495" t="s">
-        <v>594</v>
       </c>
       <c r="C495" t="b">
         <v>1</v>
@@ -10421,13 +11211,16 @@
         <v>604</v>
       </c>
       <c r="B496" t="s">
+        <v>603</v>
+      </c>
+      <c r="C496" t="b">
+        <v>1</v>
+      </c>
+      <c r="D496" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E496" t="s">
         <v>605</v>
-      </c>
-      <c r="C496" t="b">
-        <v>1</v>
-      </c>
-      <c r="D496" s="1" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
@@ -10435,16 +11228,13 @@
         <v>606</v>
       </c>
       <c r="B497" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C497" t="b">
         <v>1</v>
       </c>
       <c r="D497" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E497" t="s">
-        <v>607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
@@ -10466,7 +11256,7 @@
         <v>610</v>
       </c>
       <c r="B499" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C499" t="b">
         <v>1</v>
@@ -10477,10 +11267,10 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B500" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C500" t="b">
         <v>1</v>
@@ -10491,10 +11281,10 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B501" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C501" t="b">
         <v>1</v>
@@ -10505,16 +11295,19 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
+        <v>613</v>
+      </c>
+      <c r="B502" t="s">
         <v>614</v>
       </c>
-      <c r="B502" t="s">
-        <v>611</v>
-      </c>
       <c r="C502" t="b">
         <v>1</v>
       </c>
       <c r="D502" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E502" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
@@ -10522,24 +11315,21 @@
         <v>615</v>
       </c>
       <c r="B503" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C503" t="b">
         <v>1</v>
       </c>
       <c r="D503" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E503" t="s">
-        <v>607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B504" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C504" t="b">
         <v>1</v>
@@ -10550,10 +11340,10 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B505" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C505" t="b">
         <v>1</v>
@@ -10564,10 +11354,10 @@
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B506" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C506" t="b">
         <v>1</v>
@@ -10578,10 +11368,10 @@
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B507" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C507" t="b">
         <v>1</v>
@@ -10592,10 +11382,10 @@
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B508" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C508" t="b">
         <v>1</v>
@@ -10606,10 +11396,10 @@
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B509" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C509" t="b">
         <v>1</v>
@@ -10620,10 +11410,10 @@
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B510" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C510" t="b">
         <v>1</v>
@@ -10634,33 +11424,36 @@
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="B511" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C511" t="b">
         <v>1</v>
       </c>
       <c r="D511" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E511" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="B512" t="s">
-        <v>616</v>
-      </c>
-      <c r="C512" t="b">
-        <v>1</v>
+        <v>624</v>
+      </c>
+      <c r="C512" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D512" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E512" t="s">
-        <v>607</v>
+        <v>1</v>
+      </c>
+      <c r="E512" s="9" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
@@ -10668,7 +11461,7 @@
         <v>625</v>
       </c>
       <c r="B513" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C513" s="1" t="b">
         <v>0</v>
@@ -10677,32 +11470,29 @@
         <v>1</v>
       </c>
       <c r="E513" s="9" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B514" t="s">
-        <v>626</v>
-      </c>
-      <c r="C514" s="1" t="b">
-        <v>0</v>
+        <v>624</v>
+      </c>
+      <c r="C514" t="b">
+        <v>1</v>
       </c>
       <c r="D514" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="E514" s="9" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B515" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C515" t="b">
         <v>1</v>
@@ -10713,41 +11503,41 @@
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B516" t="s">
-        <v>626</v>
-      </c>
-      <c r="C516" t="b">
-        <v>1</v>
+        <v>624</v>
+      </c>
+      <c r="C516" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D516" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E516" s="9" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B517" t="s">
-        <v>626</v>
-      </c>
-      <c r="C517" s="1" t="b">
-        <v>0</v>
+        <v>624</v>
+      </c>
+      <c r="C517" t="b">
+        <v>1</v>
       </c>
       <c r="D517" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="E517" s="9" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B518" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C518" t="b">
         <v>1</v>
@@ -10758,24 +11548,27 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B519" t="s">
-        <v>626</v>
-      </c>
-      <c r="C519" t="b">
-        <v>1</v>
+        <v>624</v>
+      </c>
+      <c r="C519" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D519" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E519" s="9" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B520" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C520" s="1" t="b">
         <v>0</v>
@@ -10784,15 +11577,15 @@
         <v>1</v>
       </c>
       <c r="E520" s="9" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B521" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C521" s="1" t="b">
         <v>0</v>
@@ -10801,29 +11594,23 @@
         <v>1</v>
       </c>
       <c r="E521" s="9" t="s">
-        <v>589</v>
+        <v>534</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>635</v>
-      </c>
-      <c r="B522" t="s">
-        <v>626</v>
-      </c>
-      <c r="C522" s="1" t="b">
-        <v>0</v>
+        <v>634</v>
+      </c>
+      <c r="C522" t="b">
+        <v>1</v>
       </c>
       <c r="D522" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="E522" s="9" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C523" t="b">
         <v>1</v>
@@ -10834,7 +11621,7 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C524" t="b">
         <v>1</v>
@@ -10845,7 +11632,7 @@
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C525" t="b">
         <v>1</v>
@@ -10856,7 +11643,7 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C526" t="b">
         <v>1</v>
@@ -10867,7 +11654,7 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C527" t="b">
         <v>1</v>
@@ -10878,7 +11665,7 @@
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C528" t="b">
         <v>1</v>
@@ -10889,7 +11676,7 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C529" t="b">
         <v>1</v>
@@ -10900,7 +11687,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C530" t="b">
         <v>1</v>
@@ -10909,20 +11696,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A531" t="s">
-        <v>644</v>
-      </c>
-      <c r="C531" t="b">
-        <v>1</v>
-      </c>
-      <c r="D531" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E230" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="C523:C531">
+  <autoFilter ref="A1:E530" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="C2:D521 C522:C530">
     <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>EMPTY</formula>
     </cfRule>
@@ -10933,10 +11709,12 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E257 D522:D531 C2:D522">
+  <conditionalFormatting sqref="D521:D530 E257">
     <cfRule type="cellIs" dxfId="17" priority="43" operator="equal">
       <formula>EMPTY</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E257 D521:D530">
     <cfRule type="cellIs" dxfId="16" priority="44" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -10944,7 +11722,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E436">
+  <conditionalFormatting sqref="E435">
     <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>EMPTY</formula>
     </cfRule>
@@ -10955,7 +11733,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E483">
+  <conditionalFormatting sqref="E482">
     <cfRule type="cellIs" dxfId="11" priority="25" operator="equal">
       <formula>EMPTY</formula>
     </cfRule>
@@ -10966,7 +11744,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E513:E514">
+  <conditionalFormatting sqref="E512:E513">
     <cfRule type="cellIs" dxfId="8" priority="28" operator="equal">
       <formula>EMPTY</formula>
     </cfRule>
@@ -10977,7 +11755,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E517">
+  <conditionalFormatting sqref="E516">
     <cfRule type="cellIs" dxfId="5" priority="19" operator="equal">
       <formula>EMPTY</formula>
     </cfRule>
@@ -10988,7 +11766,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E520:E522">
+  <conditionalFormatting sqref="E519:E521">
     <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>EMPTY</formula>
     </cfRule>
@@ -11000,7 +11778,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D531" xr:uid="{F83032BB-BCDD-4E57-891D-09F28C1C5167}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D530" xr:uid="{F83032BB-BCDD-4E57-891D-09F28C1C5167}">
       <formula1>"TRUE,FALSE,EMPTY"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11010,11 +11788,2168 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D997F83-3C5D-410B-8428-4C8183160DFA}">
+  <dimension ref="A1:B267"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>230</v>
+      </c>
+      <c r="B42" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>259</v>
+      </c>
+      <c r="B44" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>263</v>
+      </c>
+      <c r="B45" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>265</v>
+      </c>
+      <c r="B46" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>266</v>
+      </c>
+      <c r="B47" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>270</v>
+      </c>
+      <c r="B48" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>273</v>
+      </c>
+      <c r="B49" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>276</v>
+      </c>
+      <c r="B50" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>279</v>
+      </c>
+      <c r="B51" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>280</v>
+      </c>
+      <c r="B52" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>281</v>
+      </c>
+      <c r="B53" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>284</v>
+      </c>
+      <c r="B54" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>287</v>
+      </c>
+      <c r="B55" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>291</v>
+      </c>
+      <c r="B56" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>296</v>
+      </c>
+      <c r="B57" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>297</v>
+      </c>
+      <c r="B58" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>298</v>
+      </c>
+      <c r="B59" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>301</v>
+      </c>
+      <c r="B60" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>303</v>
+      </c>
+      <c r="B61" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>306</v>
+      </c>
+      <c r="B62" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>310</v>
+      </c>
+      <c r="B63" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>313</v>
+      </c>
+      <c r="B64" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>316</v>
+      </c>
+      <c r="B65" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>319</v>
+      </c>
+      <c r="B66" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>322</v>
+      </c>
+      <c r="B67" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>323</v>
+      </c>
+      <c r="B68" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>325</v>
+      </c>
+      <c r="B69" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>326</v>
+      </c>
+      <c r="B70" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>327</v>
+      </c>
+      <c r="B71" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>328</v>
+      </c>
+      <c r="B72" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>329</v>
+      </c>
+      <c r="B73" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>330</v>
+      </c>
+      <c r="B74" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>331</v>
+      </c>
+      <c r="B75" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>332</v>
+      </c>
+      <c r="B76" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>333</v>
+      </c>
+      <c r="B77" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>334</v>
+      </c>
+      <c r="B78" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>335</v>
+      </c>
+      <c r="B79" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>336</v>
+      </c>
+      <c r="B80" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>337</v>
+      </c>
+      <c r="B81" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>338</v>
+      </c>
+      <c r="B82" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>339</v>
+      </c>
+      <c r="B83" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>340</v>
+      </c>
+      <c r="B84" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>341</v>
+      </c>
+      <c r="B85" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>342</v>
+      </c>
+      <c r="B86" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>343</v>
+      </c>
+      <c r="B87" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>344</v>
+      </c>
+      <c r="B88" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>345</v>
+      </c>
+      <c r="B89" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>349</v>
+      </c>
+      <c r="B90" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>352</v>
+      </c>
+      <c r="B91" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>354</v>
+      </c>
+      <c r="B92" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>355</v>
+      </c>
+      <c r="B93" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>356</v>
+      </c>
+      <c r="B94" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>357</v>
+      </c>
+      <c r="B95" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>360</v>
+      </c>
+      <c r="B96" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>361</v>
+      </c>
+      <c r="B97" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>365</v>
+      </c>
+      <c r="B98" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>368</v>
+      </c>
+      <c r="B99" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>372</v>
+      </c>
+      <c r="B100" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>374</v>
+      </c>
+      <c r="B101" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>375</v>
+      </c>
+      <c r="B102" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>379</v>
+      </c>
+      <c r="B103" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>380</v>
+      </c>
+      <c r="B104" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>382</v>
+      </c>
+      <c r="B105" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>384</v>
+      </c>
+      <c r="B106" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>387</v>
+      </c>
+      <c r="B107" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>389</v>
+      </c>
+      <c r="B108" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>390</v>
+      </c>
+      <c r="B109" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>392</v>
+      </c>
+      <c r="B110" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>393</v>
+      </c>
+      <c r="B111" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>400</v>
+      </c>
+      <c r="B112" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>404</v>
+      </c>
+      <c r="B113" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>408</v>
+      </c>
+      <c r="B114" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>413</v>
+      </c>
+      <c r="B115" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>417</v>
+      </c>
+      <c r="B116" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B117" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>423</v>
+      </c>
+      <c r="B118" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>426</v>
+      </c>
+      <c r="B119" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>430</v>
+      </c>
+      <c r="B120" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>435</v>
+      </c>
+      <c r="B121" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>438</v>
+      </c>
+      <c r="B122" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>441</v>
+      </c>
+      <c r="B123" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>444</v>
+      </c>
+      <c r="B124" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>447</v>
+      </c>
+      <c r="B125" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>449</v>
+      </c>
+      <c r="B126" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>451</v>
+      </c>
+      <c r="B127" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>454</v>
+      </c>
+      <c r="B128" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>456</v>
+      </c>
+      <c r="B129" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>463</v>
+      </c>
+      <c r="B130" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>465</v>
+      </c>
+      <c r="B131" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>466</v>
+      </c>
+      <c r="B132" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>467</v>
+      </c>
+      <c r="B133" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>469</v>
+      </c>
+      <c r="B134" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>472</v>
+      </c>
+      <c r="B135" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>476</v>
+      </c>
+      <c r="B136" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>478</v>
+      </c>
+      <c r="B137" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>479</v>
+      </c>
+      <c r="B138" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>481</v>
+      </c>
+      <c r="B139" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>482</v>
+      </c>
+      <c r="B140" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>483</v>
+      </c>
+      <c r="B141" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>484</v>
+      </c>
+      <c r="B142" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>485</v>
+      </c>
+      <c r="B143" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>486</v>
+      </c>
+      <c r="B144" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>487</v>
+      </c>
+      <c r="B145" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>488</v>
+      </c>
+      <c r="B146" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>489</v>
+      </c>
+      <c r="B147" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>496</v>
+      </c>
+      <c r="B148" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>498</v>
+      </c>
+      <c r="B149" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>499</v>
+      </c>
+      <c r="B150" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>500</v>
+      </c>
+      <c r="B151" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>501</v>
+      </c>
+      <c r="B152" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>502</v>
+      </c>
+      <c r="B153" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>503</v>
+      </c>
+      <c r="B154" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>504</v>
+      </c>
+      <c r="B155" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>505</v>
+      </c>
+      <c r="B156" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>506</v>
+      </c>
+      <c r="B157" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>508</v>
+      </c>
+      <c r="B158" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>510</v>
+      </c>
+      <c r="B159" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>511</v>
+      </c>
+      <c r="B160" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>513</v>
+      </c>
+      <c r="B161" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>514</v>
+      </c>
+      <c r="B162" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>516</v>
+      </c>
+      <c r="B163" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>517</v>
+      </c>
+      <c r="B164" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>519</v>
+      </c>
+      <c r="B165" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>520</v>
+      </c>
+      <c r="B166" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>521</v>
+      </c>
+      <c r="B167" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>523</v>
+      </c>
+      <c r="B168" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>525</v>
+      </c>
+      <c r="B169" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>526</v>
+      </c>
+      <c r="B170" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>527</v>
+      </c>
+      <c r="B171" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>528</v>
+      </c>
+      <c r="B172" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>529</v>
+      </c>
+      <c r="B173" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>531</v>
+      </c>
+      <c r="B174" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>532</v>
+      </c>
+      <c r="B175" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>535</v>
+      </c>
+      <c r="B176" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>536</v>
+      </c>
+      <c r="B177" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>538</v>
+      </c>
+      <c r="B178" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>539</v>
+      </c>
+      <c r="B179" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>540</v>
+      </c>
+      <c r="B180" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>541</v>
+      </c>
+      <c r="B181" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>542</v>
+      </c>
+      <c r="B182" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>543</v>
+      </c>
+      <c r="B183" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>544</v>
+      </c>
+      <c r="B184" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>546</v>
+      </c>
+      <c r="B185" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>547</v>
+      </c>
+      <c r="B186" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>548</v>
+      </c>
+      <c r="B187" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>549</v>
+      </c>
+      <c r="B188" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>550</v>
+      </c>
+      <c r="B189" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>551</v>
+      </c>
+      <c r="B190" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>552</v>
+      </c>
+      <c r="B191" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>553</v>
+      </c>
+      <c r="B192" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>554</v>
+      </c>
+      <c r="B193" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>555</v>
+      </c>
+      <c r="B194" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>556</v>
+      </c>
+      <c r="B195" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>557</v>
+      </c>
+      <c r="B196" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>558</v>
+      </c>
+      <c r="B197" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>559</v>
+      </c>
+      <c r="B198" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>560</v>
+      </c>
+      <c r="B199" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>561</v>
+      </c>
+      <c r="B200" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>562</v>
+      </c>
+      <c r="B201" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>563</v>
+      </c>
+      <c r="B202" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>564</v>
+      </c>
+      <c r="B203" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>565</v>
+      </c>
+      <c r="B204" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>566</v>
+      </c>
+      <c r="B205" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>567</v>
+      </c>
+      <c r="B206" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>568</v>
+      </c>
+      <c r="B207" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>569</v>
+      </c>
+      <c r="B208" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>570</v>
+      </c>
+      <c r="B209" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>571</v>
+      </c>
+      <c r="B210" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>572</v>
+      </c>
+      <c r="B211" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>573</v>
+      </c>
+      <c r="B212" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>575</v>
+      </c>
+      <c r="B213" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>577</v>
+      </c>
+      <c r="B214" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>578</v>
+      </c>
+      <c r="B215" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>579</v>
+      </c>
+      <c r="B216" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>580</v>
+      </c>
+      <c r="B217" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>582</v>
+      </c>
+      <c r="B218" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>583</v>
+      </c>
+      <c r="B219" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>584</v>
+      </c>
+      <c r="B220" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>585</v>
+      </c>
+      <c r="B221" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>586</v>
+      </c>
+      <c r="B222" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>588</v>
+      </c>
+      <c r="B223" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>590</v>
+      </c>
+      <c r="B224" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>591</v>
+      </c>
+      <c r="B225" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>593</v>
+      </c>
+      <c r="B226" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>594</v>
+      </c>
+      <c r="B227" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>595</v>
+      </c>
+      <c r="B228" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>596</v>
+      </c>
+      <c r="B229" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>597</v>
+      </c>
+      <c r="B230" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>598</v>
+      </c>
+      <c r="B231" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>599</v>
+      </c>
+      <c r="B232" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>600</v>
+      </c>
+      <c r="B233" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>601</v>
+      </c>
+      <c r="B234" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>602</v>
+      </c>
+      <c r="B235" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>606</v>
+      </c>
+      <c r="B236" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>608</v>
+      </c>
+      <c r="B237" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>610</v>
+      </c>
+      <c r="B238" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>611</v>
+      </c>
+      <c r="B239" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>612</v>
+      </c>
+      <c r="B240" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>615</v>
+      </c>
+      <c r="B241" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>616</v>
+      </c>
+      <c r="B242" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>617</v>
+      </c>
+      <c r="B243" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>618</v>
+      </c>
+      <c r="B244" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>619</v>
+      </c>
+      <c r="B245" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>620</v>
+      </c>
+      <c r="B246" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>621</v>
+      </c>
+      <c r="B247" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>622</v>
+      </c>
+      <c r="B248" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>623</v>
+      </c>
+      <c r="B249" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>625</v>
+      </c>
+      <c r="B250" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>626</v>
+      </c>
+      <c r="B251" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>627</v>
+      </c>
+      <c r="B252" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>628</v>
+      </c>
+      <c r="B253" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>629</v>
+      </c>
+      <c r="B254" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>630</v>
+      </c>
+      <c r="B255" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>631</v>
+      </c>
+      <c r="B256" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>632</v>
+      </c>
+      <c r="B257" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>633</v>
+      </c>
+      <c r="B258" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>634</v>
+      </c>
+      <c r="B259" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>635</v>
+      </c>
+      <c r="B260" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>636</v>
+      </c>
+      <c r="B261" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>637</v>
+      </c>
+      <c r="B262" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>638</v>
+      </c>
+      <c r="B263" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>639</v>
+      </c>
+      <c r="B264" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>640</v>
+      </c>
+      <c r="B265" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>641</v>
+      </c>
+      <c r="B266" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>642</v>
+      </c>
+      <c r="B267" t="s">
+        <v>642</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B530" xr:uid="{9D997F83-3C5D-410B-8428-4C8183160DFA}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A220234-7BCB-43B6-AA3C-392FDCF163DE}">
-  <dimension ref="A1:C522"/>
+  <dimension ref="A1:C521"/>
   <sheetViews>
-    <sheetView topLeftCell="A497" workbookViewId="0">
-      <selection activeCell="A522" sqref="A522"/>
+    <sheetView topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="B325" sqref="B325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15499,7 +18434,7 @@
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="str">
         <f>Sheet1!A321</f>
-        <v>LBXGH_Glycohemoglobin</v>
+        <v>LBDHDD_Direct_HDL_Cholesterol_mg_dL</v>
       </c>
       <c r="B321" t="b">
         <f>Sheet1!C321</f>
@@ -15513,7 +18448,7 @@
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="str">
         <f>Sheet1!A322</f>
-        <v>LBDHDD_Direct_HDL_Cholesterol_mg_dL</v>
+        <v>LBDHDDSI_Direct_HDL_Cholesterol_mmol_L</v>
       </c>
       <c r="B322" t="b">
         <f>Sheet1!C322</f>
@@ -15521,17 +18456,17 @@
       </c>
       <c r="C322" t="b">
         <f>Sheet1!D322</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="str">
         <f>Sheet1!A323</f>
-        <v>LBDHDDSI_Direct_HDL_Cholesterol_mmol_L</v>
+        <v>LBXHA_Hepatitis_A_antibody</v>
       </c>
       <c r="B323" t="b">
         <f>Sheet1!C323</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C323" t="b">
         <f>Sheet1!D323</f>
@@ -15541,7 +18476,7 @@
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="str">
         <f>Sheet1!A324</f>
-        <v>LBXHA_Hepatitis_A_antibody</v>
+        <v>LBXHBC_Hepatitis_B_core_antibody</v>
       </c>
       <c r="B324" t="b">
         <f>Sheet1!C324</f>
@@ -15555,7 +18490,7 @@
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="str">
         <f>Sheet1!A325</f>
-        <v>LBXHBC_Hepatitis_B_core_antibody</v>
+        <v>LBXHBS_Hepatitis_B_Surface_Antibody</v>
       </c>
       <c r="B325" t="b">
         <f>Sheet1!C325</f>
@@ -15569,7 +18504,7 @@
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="str">
         <f>Sheet1!A326</f>
-        <v>LBXHBS_Hepatitis_B_Surface_Antibody</v>
+        <v>LBXHCR_Hepatitis_C_RNA</v>
       </c>
       <c r="B326" t="b">
         <f>Sheet1!C326</f>
@@ -15583,7 +18518,7 @@
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="str">
         <f>Sheet1!A327</f>
-        <v>LBXHCR_Hepatitis_C_RNA</v>
+        <v>LBDHCI_Hepatitis_C_Antibody_confirmed</v>
       </c>
       <c r="B327" t="b">
         <f>Sheet1!C327</f>
@@ -15597,7 +18532,7 @@
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="str">
         <f>Sheet1!A328</f>
-        <v>LBDHCI_Hepatitis_C_Antibody_confirmed</v>
+        <v>LBDHEG_Hepatitis_E_IgG_anti_HEV</v>
       </c>
       <c r="B328" t="b">
         <f>Sheet1!C328</f>
@@ -15611,7 +18546,7 @@
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="str">
         <f>Sheet1!A329</f>
-        <v>LBDHEG_Hepatitis_E_IgG_anti_HEV</v>
+        <v>LBDHEM_Hepatitis_E_IgM_anti_HEV</v>
       </c>
       <c r="B329" t="b">
         <f>Sheet1!C329</f>
@@ -15625,11 +18560,11 @@
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="str">
         <f>Sheet1!A330</f>
-        <v>LBDHEM_Hepatitis_E_IgM_anti_HEV</v>
+        <v>LBXHSCRP_HS_C_Reactive_Protein_mg_L</v>
       </c>
       <c r="B330" t="b">
         <f>Sheet1!C330</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C330" t="b">
         <f>Sheet1!D330</f>
@@ -15639,25 +18574,25 @@
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="str">
         <f>Sheet1!A331</f>
-        <v>LBXHSCRP_HS_C_Reactive_Protein_mg_L</v>
+        <v>LBDHRPLC_HS_C_Reactive_Protein_Comment_Code</v>
       </c>
       <c r="B331" t="b">
         <f>Sheet1!C331</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C331" t="b">
         <f>Sheet1!D331</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="str">
         <f>Sheet1!A332</f>
-        <v>LBDHRPLC_HS_C_Reactive_Protein_Comment_Code</v>
+        <v>LBXIHG_Mercury_inorganic_ug_L</v>
       </c>
       <c r="B332" t="b">
         <f>Sheet1!C332</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C332" t="b">
         <f>Sheet1!D332</f>
@@ -15667,7 +18602,7 @@
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="str">
         <f>Sheet1!A333</f>
-        <v>LBXIHG_Mercury_inorganic_ug_L</v>
+        <v>LBDIHGSI_Mercury_inorganic_nmol_L</v>
       </c>
       <c r="B333" t="b">
         <f>Sheet1!C333</f>
@@ -15675,13 +18610,13 @@
       </c>
       <c r="C333" t="b">
         <f>Sheet1!D333</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="str">
         <f>Sheet1!A334</f>
-        <v>LBDIHGSI_Mercury_inorganic_nmol_L</v>
+        <v>LBDIHGLC_Mercury_inorganic_comment_code</v>
       </c>
       <c r="B334" t="b">
         <f>Sheet1!C334</f>
@@ -15689,13 +18624,13 @@
       </c>
       <c r="C334" t="b">
         <f>Sheet1!D334</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="str">
         <f>Sheet1!A335</f>
-        <v>LBDIHGLC_Mercury_inorganic_comment_code</v>
+        <v>LBXBGE_Mercury_ethyl_ug_L</v>
       </c>
       <c r="B335" t="b">
         <f>Sheet1!C335</f>
@@ -15709,7 +18644,7 @@
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="str">
         <f>Sheet1!A336</f>
-        <v>LBXBGE_Mercury_ethyl_ug_L</v>
+        <v>LBDBGESI_Mercury_ethyl_nmol_L</v>
       </c>
       <c r="B336" t="b">
         <f>Sheet1!C336</f>
@@ -15717,13 +18652,13 @@
       </c>
       <c r="C336" t="b">
         <f>Sheet1!D336</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="str">
         <f>Sheet1!A337</f>
-        <v>LBDBGESI_Mercury_ethyl_nmol_L</v>
+        <v>LBDBGELC_Mercury_ethyl_comment_code</v>
       </c>
       <c r="B337" t="b">
         <f>Sheet1!C337</f>
@@ -15731,13 +18666,13 @@
       </c>
       <c r="C337" t="b">
         <f>Sheet1!D337</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="str">
         <f>Sheet1!A338</f>
-        <v>LBDBGELC_Mercury_ethyl_comment_code</v>
+        <v>LBXBGM_Mercury_methyl_ug_L</v>
       </c>
       <c r="B338" t="b">
         <f>Sheet1!C338</f>
@@ -15751,7 +18686,7 @@
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="str">
         <f>Sheet1!A339</f>
-        <v>LBXBGM_Mercury_methyl_ug_L</v>
+        <v>LBDBGMSI_Mercury_methyl_nmol_L</v>
       </c>
       <c r="B339" t="b">
         <f>Sheet1!C339</f>
@@ -15759,13 +18694,13 @@
       </c>
       <c r="C339" t="b">
         <f>Sheet1!D339</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="str">
         <f>Sheet1!A340</f>
-        <v>LBDBGMSI_Mercury_methyl_nmol_L</v>
+        <v>LBDBGMLC_Mercury_methyl_comment_code</v>
       </c>
       <c r="B340" t="b">
         <f>Sheet1!C340</f>
@@ -15773,13 +18708,13 @@
       </c>
       <c r="C340" t="b">
         <f>Sheet1!D340</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="str">
         <f>Sheet1!A341</f>
-        <v>LBDBGMLC_Mercury_methyl_comment_code</v>
+        <v>LBXBPB_Blood_lead_ug_dL</v>
       </c>
       <c r="B341" t="b">
         <f>Sheet1!C341</f>
@@ -15793,7 +18728,7 @@
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="str">
         <f>Sheet1!A342</f>
-        <v>LBXBPB_Blood_lead_ug_dL</v>
+        <v>LBDBPBSI_Blood_lead_umol_L</v>
       </c>
       <c r="B342" t="b">
         <f>Sheet1!C342</f>
@@ -15801,13 +18736,13 @@
       </c>
       <c r="C342" t="b">
         <f>Sheet1!D342</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="str">
         <f>Sheet1!A343</f>
-        <v>LBDBPBSI_Blood_lead_umol_L</v>
+        <v>LBDBPBLC_Blood_lead_comment_code</v>
       </c>
       <c r="B343" t="b">
         <f>Sheet1!C343</f>
@@ -15815,13 +18750,13 @@
       </c>
       <c r="C343" t="b">
         <f>Sheet1!D343</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="str">
         <f>Sheet1!A344</f>
-        <v>LBDBPBLC_Blood_lead_comment_code</v>
+        <v>LBXBCD_Blood_cadmium_ug_L</v>
       </c>
       <c r="B344" t="b">
         <f>Sheet1!C344</f>
@@ -15835,7 +18770,7 @@
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="str">
         <f>Sheet1!A345</f>
-        <v>LBXBCD_Blood_cadmium_ug_L</v>
+        <v>LBDBCDSI_Blood_cadmium_nmol_L</v>
       </c>
       <c r="B345" t="b">
         <f>Sheet1!C345</f>
@@ -15843,13 +18778,13 @@
       </c>
       <c r="C345" t="b">
         <f>Sheet1!D345</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="str">
         <f>Sheet1!A346</f>
-        <v>LBDBCDSI_Blood_cadmium_nmol_L</v>
+        <v>LBDBCDLC_Blood_cadmium_comment_code</v>
       </c>
       <c r="B346" t="b">
         <f>Sheet1!C346</f>
@@ -15857,13 +18792,13 @@
       </c>
       <c r="C346" t="b">
         <f>Sheet1!D346</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="str">
         <f>Sheet1!A347</f>
-        <v>LBDBCDLC_Blood_cadmium_comment_code</v>
+        <v>LBXTHG_Blood_mercury_total_ug_L</v>
       </c>
       <c r="B347" t="b">
         <f>Sheet1!C347</f>
@@ -15877,7 +18812,7 @@
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="str">
         <f>Sheet1!A348</f>
-        <v>LBXTHG_Blood_mercury_total_ug_L</v>
+        <v>LBDTHGSI_Blood_mercury_total_nmol_L</v>
       </c>
       <c r="B348" t="b">
         <f>Sheet1!C348</f>
@@ -15885,13 +18820,13 @@
       </c>
       <c r="C348" t="b">
         <f>Sheet1!D348</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="str">
         <f>Sheet1!A349</f>
-        <v>LBDTHGSI_Blood_mercury_total_nmol_L</v>
+        <v>LBDTHGLC_Blood_mercury_total_comment_code</v>
       </c>
       <c r="B349" t="b">
         <f>Sheet1!C349</f>
@@ -15899,13 +18834,13 @@
       </c>
       <c r="C349" t="b">
         <f>Sheet1!D349</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="str">
         <f>Sheet1!A350</f>
-        <v>LBDTHGLC_Blood_mercury_total_comment_code</v>
+        <v>LBXBSE_Blood_selenium_ug_L</v>
       </c>
       <c r="B350" t="b">
         <f>Sheet1!C350</f>
@@ -15919,7 +18854,7 @@
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="str">
         <f>Sheet1!A351</f>
-        <v>LBXBSE_Blood_selenium_ug_L</v>
+        <v>LBDBSESI_Blood_selenium_umol_L</v>
       </c>
       <c r="B351" t="b">
         <f>Sheet1!C351</f>
@@ -15927,13 +18862,13 @@
       </c>
       <c r="C351" t="b">
         <f>Sheet1!D351</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="str">
         <f>Sheet1!A352</f>
-        <v>LBDBSESI_Blood_selenium_umol_L</v>
+        <v>LBDBSELC_Blood_selenium_comment_code</v>
       </c>
       <c r="B352" t="b">
         <f>Sheet1!C352</f>
@@ -15941,13 +18876,13 @@
       </c>
       <c r="C352" t="b">
         <f>Sheet1!D352</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="str">
         <f>Sheet1!A353</f>
-        <v>LBDBSELC_Blood_selenium_comment_code</v>
+        <v>LBXBMN_Blood_manganese_ug_L</v>
       </c>
       <c r="B353" t="b">
         <f>Sheet1!C353</f>
@@ -15961,7 +18896,7 @@
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="str">
         <f>Sheet1!A354</f>
-        <v>LBXBMN_Blood_manganese_ug_L</v>
+        <v>LBDBMNSI_Blood_manganese_nmol_L</v>
       </c>
       <c r="B354" t="b">
         <f>Sheet1!C354</f>
@@ -15969,13 +18904,13 @@
       </c>
       <c r="C354" t="b">
         <f>Sheet1!D354</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="str">
         <f>Sheet1!A355</f>
-        <v>LBDBMNSI_Blood_manganese_nmol_L</v>
+        <v>LBDBMNLC_Blood_manganese_comment_code</v>
       </c>
       <c r="B355" t="b">
         <f>Sheet1!C355</f>
@@ -15983,13 +18918,13 @@
       </c>
       <c r="C355" t="b">
         <f>Sheet1!D355</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="str">
         <f>Sheet1!A356</f>
-        <v>LBDBMNLC_Blood_manganese_comment_code</v>
+        <v>LBXTC_Total_Cholesterol_mg_dL</v>
       </c>
       <c r="B356" t="b">
         <f>Sheet1!C356</f>
@@ -16003,7 +18938,7 @@
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="str">
         <f>Sheet1!A357</f>
-        <v>LBXTC_Total_Cholesterol_mg_dL</v>
+        <v>LBDTCSI_Total_Cholesterol_mmol_L</v>
       </c>
       <c r="B357" t="b">
         <f>Sheet1!C357</f>
@@ -16011,13 +18946,13 @@
       </c>
       <c r="C357" t="b">
         <f>Sheet1!D357</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="str">
         <f>Sheet1!A358</f>
-        <v>LBDTCSI_Total_Cholesterol_mmol_L</v>
+        <v>WTTSTPP_TST_Subsample_Weights_Pre_Pandemic</v>
       </c>
       <c r="B358" t="b">
         <f>Sheet1!C358</f>
@@ -16025,13 +18960,13 @@
       </c>
       <c r="C358" t="b">
         <f>Sheet1!D358</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="str">
         <f>Sheet1!A359</f>
-        <v>WTTSTPP_TST_Subsample_Weights_Pre_Pandemic</v>
+        <v>LBX17H_17_hydroxyprogesterone_ng_dL</v>
       </c>
       <c r="B359" t="b">
         <f>Sheet1!C359</f>
@@ -16045,7 +18980,7 @@
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="str">
         <f>Sheet1!A360</f>
-        <v>LBX17H_17_hydroxyprogesterone_ng_dL</v>
+        <v>LBD17HSI_17_hydroxyprogesterone_nmol_L</v>
       </c>
       <c r="B360" t="b">
         <f>Sheet1!C360</f>
@@ -16053,13 +18988,13 @@
       </c>
       <c r="C360" t="b">
         <f>Sheet1!D360</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="str">
         <f>Sheet1!A361</f>
-        <v>LBD17HSI_17_hydroxyprogesterone_nmol_L</v>
+        <v>LBD17HLC_17_hydroxyprogesterone_Comment_Code</v>
       </c>
       <c r="B361" t="b">
         <f>Sheet1!C361</f>
@@ -16067,13 +19002,13 @@
       </c>
       <c r="C361" t="b">
         <f>Sheet1!D361</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="str">
         <f>Sheet1!A362</f>
-        <v>LBD17HLC_17_hydroxyprogesterone_Comment_Code</v>
+        <v>LBXAND_Androstenedione_ng_dL</v>
       </c>
       <c r="B362" t="b">
         <f>Sheet1!C362</f>
@@ -16087,7 +19022,7 @@
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="str">
         <f>Sheet1!A363</f>
-        <v>LBXAND_Androstenedione_ng_dL</v>
+        <v>LBDANDSI_Androstenedione_nmol_L</v>
       </c>
       <c r="B363" t="b">
         <f>Sheet1!C363</f>
@@ -16095,13 +19030,13 @@
       </c>
       <c r="C363" t="b">
         <f>Sheet1!D363</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="str">
         <f>Sheet1!A364</f>
-        <v>LBDANDSI_Androstenedione_nmol_L</v>
+        <v>LBDANDLC_Androstenedione_Comment_Code</v>
       </c>
       <c r="B364" t="b">
         <f>Sheet1!C364</f>
@@ -16109,13 +19044,13 @@
       </c>
       <c r="C364" t="b">
         <f>Sheet1!D364</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="str">
         <f>Sheet1!A365</f>
-        <v>LBDANDLC_Androstenedione_Comment_Code</v>
+        <v>LBXEST_Estradiol_pg_mL</v>
       </c>
       <c r="B365" t="b">
         <f>Sheet1!C365</f>
@@ -16129,7 +19064,7 @@
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="str">
         <f>Sheet1!A366</f>
-        <v>LBXEST_Estradiol_pg_mL</v>
+        <v>LBDESTSI_Estradiol_pmol_L</v>
       </c>
       <c r="B366" t="b">
         <f>Sheet1!C366</f>
@@ -16137,13 +19072,13 @@
       </c>
       <c r="C366" t="b">
         <f>Sheet1!D366</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="str">
         <f>Sheet1!A367</f>
-        <v>LBDESTSI_Estradiol_pmol_L</v>
+        <v>LBDESTLC_Estradiol_Comment_Code</v>
       </c>
       <c r="B367" t="b">
         <f>Sheet1!C367</f>
@@ -16151,13 +19086,13 @@
       </c>
       <c r="C367" t="b">
         <f>Sheet1!D367</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="str">
         <f>Sheet1!A368</f>
-        <v>LBDESTLC_Estradiol_Comment_Code</v>
+        <v>LBXESO_Estrone_ng_dL</v>
       </c>
       <c r="B368" t="b">
         <f>Sheet1!C368</f>
@@ -16171,7 +19106,7 @@
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="str">
         <f>Sheet1!A369</f>
-        <v>LBXESO_Estrone_ng_dL</v>
+        <v>LBDESOSI_Estrone_pmol_L</v>
       </c>
       <c r="B369" t="b">
         <f>Sheet1!C369</f>
@@ -16179,13 +19114,13 @@
       </c>
       <c r="C369" t="b">
         <f>Sheet1!D369</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="str">
         <f>Sheet1!A370</f>
-        <v>LBDESOSI_Estrone_pmol_L</v>
+        <v>LBDESOLC_Estrone_Comment_Code</v>
       </c>
       <c r="B370" t="b">
         <f>Sheet1!C370</f>
@@ -16193,13 +19128,13 @@
       </c>
       <c r="C370" t="b">
         <f>Sheet1!D370</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="str">
         <f>Sheet1!A371</f>
-        <v>LBDESOLC_Estrone_Comment_Code</v>
+        <v>LBXES1_Estrone_Sulfate_pg_mL</v>
       </c>
       <c r="B371" t="b">
         <f>Sheet1!C371</f>
@@ -16213,7 +19148,7 @@
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="str">
         <f>Sheet1!A372</f>
-        <v>LBXES1_Estrone_Sulfate_pg_mL</v>
+        <v>LBDES1SI_Estrone_Sulfate_pmol_L</v>
       </c>
       <c r="B372" t="b">
         <f>Sheet1!C372</f>
@@ -16221,13 +19156,13 @@
       </c>
       <c r="C372" t="b">
         <f>Sheet1!D372</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="str">
         <f>Sheet1!A373</f>
-        <v>LBDES1SI_Estrone_Sulfate_pmol_L</v>
+        <v>LBDES1LC_Estrone_Sulfate_Comment_Code</v>
       </c>
       <c r="B373" t="b">
         <f>Sheet1!C373</f>
@@ -16235,13 +19170,13 @@
       </c>
       <c r="C373" t="b">
         <f>Sheet1!D373</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="str">
         <f>Sheet1!A374</f>
-        <v>LBDES1LC_Estrone_Sulfate_Comment_Code</v>
+        <v>LBXFSH_Follicle_Stimulating_Hormone_mIU_mL</v>
       </c>
       <c r="B374" t="b">
         <f>Sheet1!C374</f>
@@ -16249,13 +19184,13 @@
       </c>
       <c r="C374" t="b">
         <f>Sheet1!D374</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="str">
         <f>Sheet1!A375</f>
-        <v>LBXFSH_Follicle_Stimulating_Hormone_mIU_mL</v>
+        <v>LBDFSHLC_FSH_Comment_Code</v>
       </c>
       <c r="B375" t="b">
         <f>Sheet1!C375</f>
@@ -16263,13 +19198,13 @@
       </c>
       <c r="C375" t="b">
         <f>Sheet1!D375</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="str">
         <f>Sheet1!A376</f>
-        <v>LBDFSHLC_FSH_Comment_Code</v>
+        <v>LBXLUH_Luteinizing_Hormone_mIU_mL</v>
       </c>
       <c r="B376" t="b">
         <f>Sheet1!C376</f>
@@ -16277,13 +19212,13 @@
       </c>
       <c r="C376" t="b">
         <f>Sheet1!D376</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="str">
         <f>Sheet1!A377</f>
-        <v>LBXLUH_Luteinizing_Hormone_mIU_mL</v>
+        <v>LBDLUHLC_Luteinizing_Hormone_Comment_Code</v>
       </c>
       <c r="B377" t="b">
         <f>Sheet1!C377</f>
@@ -16291,13 +19226,13 @@
       </c>
       <c r="C377" t="b">
         <f>Sheet1!D377</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="str">
         <f>Sheet1!A378</f>
-        <v>LBDLUHLC_Luteinizing_Hormone_Comment_Code</v>
+        <v>LBXPG4_Progesterone_ng_dL</v>
       </c>
       <c r="B378" t="b">
         <f>Sheet1!C378</f>
@@ -16311,7 +19246,7 @@
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="str">
         <f>Sheet1!A379</f>
-        <v>LBXPG4_Progesterone_ng_dL</v>
+        <v>LBDPG4SI_Progesterone_nmol_L</v>
       </c>
       <c r="B379" t="b">
         <f>Sheet1!C379</f>
@@ -16319,13 +19254,13 @@
       </c>
       <c r="C379" t="b">
         <f>Sheet1!D379</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="str">
         <f>Sheet1!A380</f>
-        <v>LBDPG4SI_Progesterone_nmol_L</v>
+        <v>LBDPG4LC_Progesterone_Comment_Code</v>
       </c>
       <c r="B380" t="b">
         <f>Sheet1!C380</f>
@@ -16333,13 +19268,13 @@
       </c>
       <c r="C380" t="b">
         <f>Sheet1!D380</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="str">
         <f>Sheet1!A381</f>
-        <v>LBDPG4LC_Progesterone_Comment_Code</v>
+        <v>LBXSHBG_SHBG_nmol_L</v>
       </c>
       <c r="B381" t="b">
         <f>Sheet1!C381</f>
@@ -16347,13 +19282,13 @@
       </c>
       <c r="C381" t="b">
         <f>Sheet1!D381</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="str">
         <f>Sheet1!A382</f>
-        <v>LBXSHBG_SHBG_nmol_L</v>
+        <v>LBDSHGLC_SHBG_Comment_Code</v>
       </c>
       <c r="B382" t="b">
         <f>Sheet1!C382</f>
@@ -16361,13 +19296,13 @@
       </c>
       <c r="C382" t="b">
         <f>Sheet1!D382</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="str">
         <f>Sheet1!A383</f>
-        <v>LBDSHGLC_SHBG_Comment_Code</v>
+        <v>URXVOL1_The_volume_of_urine_collection_1_mL</v>
       </c>
       <c r="B383" t="b">
         <f>Sheet1!C383</f>
@@ -16381,7 +19316,7 @@
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="str">
         <f>Sheet1!A384</f>
-        <v>URXVOL1_The_volume_of_urine_collection_1_mL</v>
+        <v>URDFLOW1_Urine_1_Flow_Rate_mL_min</v>
       </c>
       <c r="B384" t="b">
         <f>Sheet1!C384</f>
@@ -16395,7 +19330,7 @@
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="str">
         <f>Sheet1!A385</f>
-        <v>URDFLOW1_Urine_1_Flow_Rate_mL_min</v>
+        <v>URDTIME1_Minutes_b_w_last_urination_urine_1</v>
       </c>
       <c r="B385" t="b">
         <f>Sheet1!C385</f>
@@ -16409,21 +19344,21 @@
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="str">
         <f>Sheet1!A386</f>
-        <v>URDTIME1_Minutes_b_w_last_urination_urine_1</v>
+        <v>ALQ111_Ever_had_a_drink_of_any_kind_of_alcohol</v>
       </c>
       <c r="B386" t="b">
         <f>Sheet1!C386</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C386" t="b">
         <f>Sheet1!D386</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="str">
         <f>Sheet1!A387</f>
-        <v>ALQ111_Ever_had_a_drink_of_any_kind_of_alcohol</v>
+        <v>ALQ121_Past_12_mo_how_often_drink_alcoholic_bev</v>
       </c>
       <c r="B387" t="b">
         <f>Sheet1!C387</f>
@@ -16437,7 +19372,7 @@
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="str">
         <f>Sheet1!A388</f>
-        <v>ALQ121_Past_12_mo_how_often_drink_alcoholic_bev</v>
+        <v>ALQ151_Ever_have_4_5_or_more_drinks_every_day</v>
       </c>
       <c r="B388" t="b">
         <f>Sheet1!C388</f>
@@ -16451,7 +19386,7 @@
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="str">
         <f>Sheet1!A389</f>
-        <v>ALQ151_Ever_have_4_5_or_more_drinks_every_day</v>
+        <v>AUQ054_General_condition_of_hearing</v>
       </c>
       <c r="B389" t="b">
         <f>Sheet1!C389</f>
@@ -16465,7 +19400,7 @@
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="str">
         <f>Sheet1!A390</f>
-        <v>AUQ054_General_condition_of_hearing</v>
+        <v>BPQ020_Ever_told_you_had_high_blood_pressure</v>
       </c>
       <c r="B390" t="b">
         <f>Sheet1!C390</f>
@@ -16479,7 +19414,7 @@
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="str">
         <f>Sheet1!A391</f>
-        <v>BPQ020_Ever_told_you_had_high_blood_pressure</v>
+        <v>BPQ080_Doctor_told_you_high_cholesterol_level</v>
       </c>
       <c r="B391" t="b">
         <f>Sheet1!C391</f>
@@ -16493,35 +19428,35 @@
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="str">
         <f>Sheet1!A392</f>
-        <v>BPQ080_Doctor_told_you_high_cholesterol_level</v>
+        <v>WTDRD1PP_Dietary_day_one_sample_weight</v>
       </c>
       <c r="B392" t="b">
         <f>Sheet1!C392</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C392" t="b">
         <f>Sheet1!D392</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="str">
         <f>Sheet1!A393</f>
-        <v>WTDRD1PP_Dietary_day_one_sample_weight</v>
+        <v>DBQ700_How_healthy_is_the_diet</v>
       </c>
       <c r="B393" t="b">
         <f>Sheet1!C393</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C393" t="b">
         <f>Sheet1!D393</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="str">
         <f>Sheet1!A394</f>
-        <v>DBQ700_How_healthy_is_the_diet</v>
+        <v>DBQ197_Past_30_day_milk_product_consumption</v>
       </c>
       <c r="B394" t="b">
         <f>Sheet1!C394</f>
@@ -16535,7 +19470,7 @@
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="str">
         <f>Sheet1!A395</f>
-        <v>DBQ197_Past_30_day_milk_product_consumption</v>
+        <v>DBQ229_Regular_milk_use_5_times_per_week</v>
       </c>
       <c r="B395" t="b">
         <f>Sheet1!C395</f>
@@ -16549,7 +19484,7 @@
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="str">
         <f>Sheet1!A396</f>
-        <v>DBQ229_Regular_milk_use_5_times_per_week</v>
+        <v>DBD895_of_meals_not_home_prepared</v>
       </c>
       <c r="B396" t="b">
         <f>Sheet1!C396</f>
@@ -16563,7 +19498,7 @@
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="str">
         <f>Sheet1!A397</f>
-        <v>DBD895_of_meals_not_home_prepared</v>
+        <v>DBD900_of_meals_from_fast_food_or_pizza_place</v>
       </c>
       <c r="B397" t="b">
         <f>Sheet1!C397</f>
@@ -16577,7 +19512,7 @@
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="str">
         <f>Sheet1!A398</f>
-        <v>DBD900_of_meals_from_fast_food_or_pizza_place</v>
+        <v>DBD905_of_ready_to_eat_foods_in_past_30_days</v>
       </c>
       <c r="B398" t="b">
         <f>Sheet1!C398</f>
@@ -16591,7 +19526,7 @@
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="str">
         <f>Sheet1!A399</f>
-        <v>DBD905_of_ready_to_eat_foods_in_past_30_days</v>
+        <v>DBD910_of_frozen_meals_pizza_in_past_30_days</v>
       </c>
       <c r="B399" t="b">
         <f>Sheet1!C399</f>
@@ -16605,7 +19540,7 @@
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="str">
         <f>Sheet1!A400</f>
-        <v>DBD910_of_frozen_meals_pizza_in_past_30_days</v>
+        <v>CBQ596_Heard_of_My_Plate</v>
       </c>
       <c r="B400" t="b">
         <f>Sheet1!C400</f>
@@ -16619,7 +19554,7 @@
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="str">
         <f>Sheet1!A401</f>
-        <v>CBQ596_Heard_of_My_Plate</v>
+        <v>DBQ930_Main_meal_planner_preparer</v>
       </c>
       <c r="B401" t="b">
         <f>Sheet1!C401</f>
@@ -16633,7 +19568,7 @@
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="str">
         <f>Sheet1!A402</f>
-        <v>DBQ930_Main_meal_planner_preparer</v>
+        <v>DBQ935_Shared_meal_planning_preparing_duty</v>
       </c>
       <c r="B402" t="b">
         <f>Sheet1!C402</f>
@@ -16647,7 +19582,7 @@
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="str">
         <f>Sheet1!A403</f>
-        <v>DBQ935_Shared_meal_planning_preparing_duty</v>
+        <v>DBQ940_Main_food_shopper</v>
       </c>
       <c r="B403" t="b">
         <f>Sheet1!C403</f>
@@ -16661,7 +19596,7 @@
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="str">
         <f>Sheet1!A404</f>
-        <v>DBQ940_Main_food_shopper</v>
+        <v>DBQ945_Shared_food_shopping_duty</v>
       </c>
       <c r="B404" t="b">
         <f>Sheet1!C404</f>
@@ -16675,7 +19610,7 @@
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="str">
         <f>Sheet1!A405</f>
-        <v>DBQ945_Shared_food_shopping_duty</v>
+        <v>DIQ010_Doctor_told_you_have_diabetes</v>
       </c>
       <c r="B405" t="b">
         <f>Sheet1!C405</f>
@@ -16683,13 +19618,13 @@
       </c>
       <c r="C405" t="b">
         <f>Sheet1!D405</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="str">
         <f>Sheet1!A406</f>
-        <v>DIQ010_Doctor_told_you_have_diabetes</v>
+        <v>DIQ160_Ever_told_you_have_prediabetes</v>
       </c>
       <c r="B406" t="b">
         <f>Sheet1!C406</f>
@@ -16703,7 +19638,7 @@
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="str">
         <f>Sheet1!A407</f>
-        <v>DIQ160_Ever_told_you_have_prediabetes</v>
+        <v>DIQ180_Had_blood_tested_past_three_years</v>
       </c>
       <c r="B407" t="b">
         <f>Sheet1!C407</f>
@@ -16717,7 +19652,7 @@
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="str">
         <f>Sheet1!A408</f>
-        <v>DIQ180_Had_blood_tested_past_three_years</v>
+        <v>DPQ010_Have_little_interest_in_doing_things</v>
       </c>
       <c r="B408" t="b">
         <f>Sheet1!C408</f>
@@ -16725,13 +19660,13 @@
       </c>
       <c r="C408" t="b">
         <f>Sheet1!D408</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="str">
         <f>Sheet1!A409</f>
-        <v>DPQ010_Have_little_interest_in_doing_things</v>
+        <v>DPQ020_Feeling_down_depressed_or_hopeless</v>
       </c>
       <c r="B409" t="b">
         <f>Sheet1!C409</f>
@@ -16745,7 +19680,7 @@
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="str">
         <f>Sheet1!A410</f>
-        <v>DPQ020_Feeling_down_depressed_or_hopeless</v>
+        <v>DPQ030_Trouble_sleeping_or_sleeping_too_much</v>
       </c>
       <c r="B410" t="b">
         <f>Sheet1!C410</f>
@@ -16759,7 +19694,7 @@
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="str">
         <f>Sheet1!A411</f>
-        <v>DPQ030_Trouble_sleeping_or_sleeping_too_much</v>
+        <v>DPQ040_Feeling_tired_or_having_little_energy</v>
       </c>
       <c r="B411" t="b">
         <f>Sheet1!C411</f>
@@ -16773,7 +19708,7 @@
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="str">
         <f>Sheet1!A412</f>
-        <v>DPQ040_Feeling_tired_or_having_little_energy</v>
+        <v>DPQ050_Poor_appetite_or_overeating</v>
       </c>
       <c r="B412" t="b">
         <f>Sheet1!C412</f>
@@ -16787,7 +19722,7 @@
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="str">
         <f>Sheet1!A413</f>
-        <v>DPQ050_Poor_appetite_or_overeating</v>
+        <v>DPQ060_Feeling_bad_about_yourself</v>
       </c>
       <c r="B413" t="b">
         <f>Sheet1!C413</f>
@@ -16801,7 +19736,7 @@
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="str">
         <f>Sheet1!A414</f>
-        <v>DPQ060_Feeling_bad_about_yourself</v>
+        <v>DPQ070_Trouble_concentrating_on_things</v>
       </c>
       <c r="B414" t="b">
         <f>Sheet1!C414</f>
@@ -16815,7 +19750,7 @@
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="str">
         <f>Sheet1!A415</f>
-        <v>DPQ070_Trouble_concentrating_on_things</v>
+        <v>DPQ080_Moving_or_speaking_slowly_or_too_fast</v>
       </c>
       <c r="B415" t="b">
         <f>Sheet1!C415</f>
@@ -16829,7 +19764,7 @@
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="str">
         <f>Sheet1!A416</f>
-        <v>DPQ080_Moving_or_speaking_slowly_or_too_fast</v>
+        <v>DPQ090_Thoughts_you_would_be_better_off_dead</v>
       </c>
       <c r="B416" t="b">
         <f>Sheet1!C416</f>
@@ -16843,7 +19778,7 @@
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="str">
         <f>Sheet1!A417</f>
-        <v>DPQ090_Thoughts_you_would_be_better_off_dead</v>
+        <v>FSDHH_Household_food_security_category</v>
       </c>
       <c r="B417" t="b">
         <f>Sheet1!C417</f>
@@ -16857,7 +19792,7 @@
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="str">
         <f>Sheet1!A418</f>
-        <v>FSDHH_Household_food_security_category</v>
+        <v>FSDAD_Adult_food_security_category</v>
       </c>
       <c r="B418" t="b">
         <f>Sheet1!C418</f>
@@ -16871,7 +19806,7 @@
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="str">
         <f>Sheet1!A419</f>
-        <v>FSDAD_Adult_food_security_category</v>
+        <v>FSD151_HH_Emergency_food_received</v>
       </c>
       <c r="B419" t="b">
         <f>Sheet1!C419</f>
@@ -16885,7 +19820,7 @@
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="str">
         <f>Sheet1!A420</f>
-        <v>FSD151_HH_Emergency_food_received</v>
+        <v>FSQ165_HH_FS_benefit_ever_received</v>
       </c>
       <c r="B420" t="b">
         <f>Sheet1!C420</f>
@@ -16899,7 +19834,7 @@
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="str">
         <f>Sheet1!A421</f>
-        <v>FSQ165_HH_FS_benefit_ever_received</v>
+        <v>FSD162_HH_WIC_benefit_receive_in_last_12_month</v>
       </c>
       <c r="B421" t="b">
         <f>Sheet1!C421</f>
@@ -16913,7 +19848,7 @@
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="str">
         <f>Sheet1!A422</f>
-        <v>FSD162_HH_WIC_benefit_receive_in_last_12_month</v>
+        <v>HEQ010_Ever_told_you_have_Hepatitis_B</v>
       </c>
       <c r="B422" t="b">
         <f>Sheet1!C422</f>
@@ -16927,7 +19862,7 @@
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="str">
         <f>Sheet1!A423</f>
-        <v>HEQ010_Ever_told_you_have_Hepatitis_B</v>
+        <v>HEQ030_Ever_told_you_have_Hepatitis_C</v>
       </c>
       <c r="B423" t="b">
         <f>Sheet1!C423</f>
@@ -16941,7 +19876,7 @@
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="str">
         <f>Sheet1!A424</f>
-        <v>HEQ030_Ever_told_you_have_Hepatitis_C</v>
+        <v>HIQ011_Covered_by_health_insurance</v>
       </c>
       <c r="B424" t="b">
         <f>Sheet1!C424</f>
@@ -16955,7 +19890,7 @@
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="str">
         <f>Sheet1!A425</f>
-        <v>HIQ011_Covered_by_health_insurance</v>
+        <v>HIQ270_Do_plans_cover_prescriptions</v>
       </c>
       <c r="B425" t="b">
         <f>Sheet1!C425</f>
@@ -16969,7 +19904,7 @@
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="str">
         <f>Sheet1!A426</f>
-        <v>HIQ270_Do_plans_cover_prescriptions</v>
+        <v>HIQ210_Time_when_no_insurance_in_past_year</v>
       </c>
       <c r="B426" t="b">
         <f>Sheet1!C426</f>
@@ -16983,7 +19918,7 @@
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="str">
         <f>Sheet1!A427</f>
-        <v>HIQ210_Time_when_no_insurance_in_past_year</v>
+        <v>HSQ590_Blood_ever_tested_for_HIV_virus</v>
       </c>
       <c r="B427" t="b">
         <f>Sheet1!C427</f>
@@ -16997,7 +19932,7 @@
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="str">
         <f>Sheet1!A428</f>
-        <v>HSQ590_Blood_ever_tested_for_HIV_virus</v>
+        <v>HUQ010_General_health_condition</v>
       </c>
       <c r="B428" t="b">
         <f>Sheet1!C428</f>
@@ -17011,7 +19946,7 @@
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="str">
         <f>Sheet1!A429</f>
-        <v>HUQ010_General_health_condition</v>
+        <v>HUQ030_Routine_place_to_go_for_healthcare</v>
       </c>
       <c r="B429" t="b">
         <f>Sheet1!C429</f>
@@ -17025,7 +19960,7 @@
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="str">
         <f>Sheet1!A430</f>
-        <v>HUQ030_Routine_place_to_go_for_healthcare</v>
+        <v>HUQ051_times_receive_healthcare_over_past_year</v>
       </c>
       <c r="B430" t="b">
         <f>Sheet1!C430</f>
@@ -17039,7 +19974,7 @@
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="str">
         <f>Sheet1!A431</f>
-        <v>HUQ051_times_receive_healthcare_over_past_year</v>
+        <v>HUQ071_Overnight_hospital_patient_in_last_year</v>
       </c>
       <c r="B431" t="b">
         <f>Sheet1!C431</f>
@@ -17053,7 +19988,7 @@
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="str">
         <f>Sheet1!A432</f>
-        <v>HUQ071_Overnight_hospital_patient_in_last_year</v>
+        <v>HUQ090_Seen_mental_health_professional_past_yr</v>
       </c>
       <c r="B432" t="b">
         <f>Sheet1!C432</f>
@@ -17067,7 +20002,7 @@
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="str">
         <f>Sheet1!A433</f>
-        <v>HUQ090_Seen_mental_health_professional_past_yr</v>
+        <v>IMQ011_Received_Hepatitis_A_vaccine</v>
       </c>
       <c r="B433" t="b">
         <f>Sheet1!C433</f>
@@ -17081,7 +20016,7 @@
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="str">
         <f>Sheet1!A434</f>
-        <v>IMQ011_Received_Hepatitis_A_vaccine</v>
+        <v>IMQ020_Received_Hepatitis_B_3_dose_series</v>
       </c>
       <c r="B434" t="b">
         <f>Sheet1!C434</f>
@@ -17095,11 +20030,11 @@
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="str">
         <f>Sheet1!A435</f>
-        <v>IMQ020_Received_Hepatitis_B_3_dose_series</v>
+        <v>INDFMMPI_Family_monthly_poverty_level_index</v>
       </c>
       <c r="B435" t="b">
         <f>Sheet1!C435</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C435" t="b">
         <f>Sheet1!D435</f>
@@ -17109,11 +20044,11 @@
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="str">
         <f>Sheet1!A436</f>
-        <v>INDFMMPI_Family_monthly_poverty_level_index</v>
+        <v>INDFMMPC_Family_monthly_poverty_level_category</v>
       </c>
       <c r="B436" t="b">
         <f>Sheet1!C436</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C436" t="b">
         <f>Sheet1!D436</f>
@@ -17123,7 +20058,7 @@
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="str">
         <f>Sheet1!A437</f>
-        <v>INDFMMPC_Family_monthly_poverty_level_category</v>
+        <v>KIQ022_Ever_told_you_had_weak_failing_kidneys</v>
       </c>
       <c r="B437" t="b">
         <f>Sheet1!C437</f>
@@ -17137,7 +20072,7 @@
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="str">
         <f>Sheet1!A438</f>
-        <v>KIQ022_Ever_told_you_had_weak_failing_kidneys</v>
+        <v>KIQ026_Ever_had_kidney_stones</v>
       </c>
       <c r="B438" t="b">
         <f>Sheet1!C438</f>
@@ -17151,7 +20086,7 @@
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="str">
         <f>Sheet1!A439</f>
-        <v>KIQ026_Ever_had_kidney_stones</v>
+        <v>KIQ005_How_often_have_urinary_leakage</v>
       </c>
       <c r="B439" t="b">
         <f>Sheet1!C439</f>
@@ -17165,7 +20100,7 @@
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="str">
         <f>Sheet1!A440</f>
-        <v>KIQ005_How_often_have_urinary_leakage</v>
+        <v>KIQ042_Leak_urine_during_physical_activities</v>
       </c>
       <c r="B440" t="b">
         <f>Sheet1!C440</f>
@@ -17179,7 +20114,7 @@
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="str">
         <f>Sheet1!A441</f>
-        <v>KIQ042_Leak_urine_during_physical_activities</v>
+        <v>KIQ044_Urinated_before_reaching_the_toilet</v>
       </c>
       <c r="B441" t="b">
         <f>Sheet1!C441</f>
@@ -17193,7 +20128,7 @@
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="str">
         <f>Sheet1!A442</f>
-        <v>KIQ044_Urinated_before_reaching_the_toilet</v>
+        <v>KIQ046_Leak_urine_during_nonphysical_activities</v>
       </c>
       <c r="B442" t="b">
         <f>Sheet1!C442</f>
@@ -17207,7 +20142,7 @@
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="str">
         <f>Sheet1!A443</f>
-        <v>KIQ046_Leak_urine_during_nonphysical_activities</v>
+        <v>KIQ480_How_many_times_urinate_in_night</v>
       </c>
       <c r="B443" t="b">
         <f>Sheet1!C443</f>
@@ -17221,7 +20156,7 @@
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="str">
         <f>Sheet1!A444</f>
-        <v>KIQ480_How_many_times_urinate_in_night</v>
+        <v>MCQ010_Ever_been_told_you_have_asthma</v>
       </c>
       <c r="B444" t="b">
         <f>Sheet1!C444</f>
@@ -17235,7 +20170,7 @@
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="str">
         <f>Sheet1!A445</f>
-        <v>MCQ010_Ever_been_told_you_have_asthma</v>
+        <v>MCQ053_Taking_treatment_for_anemia_past_3_mos</v>
       </c>
       <c r="B445" t="b">
         <f>Sheet1!C445</f>
@@ -17249,7 +20184,7 @@
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="str">
         <f>Sheet1!A446</f>
-        <v>MCQ053_Taking_treatment_for_anemia_past_3_mos</v>
+        <v>MCQ080_Doctor_ever_said_you_were_overweight</v>
       </c>
       <c r="B446" t="b">
         <f>Sheet1!C446</f>
@@ -17263,7 +20198,7 @@
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="str">
         <f>Sheet1!A447</f>
-        <v>MCQ080_Doctor_ever_said_you_were_overweight</v>
+        <v>MCQ092_Ever_receive_blood_transfusion</v>
       </c>
       <c r="B447" t="b">
         <f>Sheet1!C447</f>
@@ -17277,7 +20212,7 @@
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="str">
         <f>Sheet1!A448</f>
-        <v>MCQ092_Ever_receive_blood_transfusion</v>
+        <v>P_MCQ__MCQ160A</v>
       </c>
       <c r="B448" t="b">
         <f>Sheet1!C448</f>
@@ -17291,7 +20226,7 @@
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="str">
         <f>Sheet1!A449</f>
-        <v>P_MCQ__MCQ160A</v>
+        <v>P_MCQ__MCQ160B</v>
       </c>
       <c r="B449" t="b">
         <f>Sheet1!C449</f>
@@ -17305,7 +20240,7 @@
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="str">
         <f>Sheet1!A450</f>
-        <v>P_MCQ__MCQ160B</v>
+        <v>P_MCQ__MCQ160C</v>
       </c>
       <c r="B450" t="b">
         <f>Sheet1!C450</f>
@@ -17319,7 +20254,7 @@
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="str">
         <f>Sheet1!A451</f>
-        <v>P_MCQ__MCQ160C</v>
+        <v>P_MCQ__MCQ160D</v>
       </c>
       <c r="B451" t="b">
         <f>Sheet1!C451</f>
@@ -17333,7 +20268,7 @@
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="str">
         <f>Sheet1!A452</f>
-        <v>P_MCQ__MCQ160D</v>
+        <v>P_MCQ__MCQ160E</v>
       </c>
       <c r="B452" t="b">
         <f>Sheet1!C452</f>
@@ -17347,7 +20282,7 @@
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="str">
         <f>Sheet1!A453</f>
-        <v>P_MCQ__MCQ160E</v>
+        <v>P_MCQ__MCQ160F</v>
       </c>
       <c r="B453" t="b">
         <f>Sheet1!C453</f>
@@ -17361,7 +20296,7 @@
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="str">
         <f>Sheet1!A454</f>
-        <v>P_MCQ__MCQ160F</v>
+        <v>P_MCQ__MCQ160M</v>
       </c>
       <c r="B454" t="b">
         <f>Sheet1!C454</f>
@@ -17375,7 +20310,7 @@
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="str">
         <f>Sheet1!A455</f>
-        <v>P_MCQ__MCQ160M</v>
+        <v>P_MCQ__MCQ160P</v>
       </c>
       <c r="B455" t="b">
         <f>Sheet1!C455</f>
@@ -17389,7 +20324,7 @@
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="str">
         <f>Sheet1!A456</f>
-        <v>P_MCQ__MCQ160P</v>
+        <v>P_MCQ__MCQ160L</v>
       </c>
       <c r="B456" t="b">
         <f>Sheet1!C456</f>
@@ -17403,7 +20338,7 @@
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="str">
         <f>Sheet1!A457</f>
-        <v>P_MCQ__MCQ160L</v>
+        <v>MCQ520_Abdominal_pain_during_past_12_months</v>
       </c>
       <c r="B457" t="b">
         <f>Sheet1!C457</f>
@@ -17417,7 +20352,7 @@
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="str">
         <f>Sheet1!A458</f>
-        <v>MCQ520_Abdominal_pain_during_past_12_months</v>
+        <v>MCQ550_Has_DR_ever_said_you_have_gallstones</v>
       </c>
       <c r="B458" t="b">
         <f>Sheet1!C458</f>
@@ -17431,7 +20366,7 @@
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="str">
         <f>Sheet1!A459</f>
-        <v>MCQ550_Has_DR_ever_said_you_have_gallstones</v>
+        <v>MCQ560_Ever_had_gallbladder_surgery</v>
       </c>
       <c r="B459" t="b">
         <f>Sheet1!C459</f>
@@ -17445,7 +20380,7 @@
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="str">
         <f>Sheet1!A460</f>
-        <v>MCQ560_Ever_had_gallbladder_surgery</v>
+        <v>MCQ220_Ever_told_you_had_cancer_or_malignancy</v>
       </c>
       <c r="B460" t="b">
         <f>Sheet1!C460</f>
@@ -17459,7 +20394,7 @@
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="str">
         <f>Sheet1!A461</f>
-        <v>MCQ220_Ever_told_you_had_cancer_or_malignancy</v>
+        <v>P_MCQ__MCQ300B</v>
       </c>
       <c r="B461" t="b">
         <f>Sheet1!C461</f>
@@ -17473,7 +20408,7 @@
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="str">
         <f>Sheet1!A462</f>
-        <v>P_MCQ__MCQ300B</v>
+        <v>P_MCQ__MCQ300C</v>
       </c>
       <c r="B462" t="b">
         <f>Sheet1!C462</f>
@@ -17487,7 +20422,7 @@
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="str">
         <f>Sheet1!A463</f>
-        <v>P_MCQ__MCQ300C</v>
+        <v>P_MCQ__MCQ300A</v>
       </c>
       <c r="B463" t="b">
         <f>Sheet1!C463</f>
@@ -17501,7 +20436,7 @@
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="str">
         <f>Sheet1!A464</f>
-        <v>P_MCQ__MCQ300A</v>
+        <v>P_MCQ__MCQ366A</v>
       </c>
       <c r="B464" t="b">
         <f>Sheet1!C464</f>
@@ -17515,7 +20450,7 @@
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="str">
         <f>Sheet1!A465</f>
-        <v>P_MCQ__MCQ366A</v>
+        <v>P_MCQ__MCQ366B</v>
       </c>
       <c r="B465" t="b">
         <f>Sheet1!C465</f>
@@ -17529,7 +20464,7 @@
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="str">
         <f>Sheet1!A466</f>
-        <v>P_MCQ__MCQ366B</v>
+        <v>P_MCQ__MCQ366C</v>
       </c>
       <c r="B466" t="b">
         <f>Sheet1!C466</f>
@@ -17543,7 +20478,7 @@
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="str">
         <f>Sheet1!A467</f>
-        <v>P_MCQ__MCQ366C</v>
+        <v>P_MCQ__MCQ366D</v>
       </c>
       <c r="B467" t="b">
         <f>Sheet1!C467</f>
@@ -17557,7 +20492,7 @@
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="str">
         <f>Sheet1!A468</f>
-        <v>P_MCQ__MCQ366D</v>
+        <v>P_MCQ__MCQ371A</v>
       </c>
       <c r="B468" t="b">
         <f>Sheet1!C468</f>
@@ -17571,7 +20506,7 @@
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="str">
         <f>Sheet1!A469</f>
-        <v>P_MCQ__MCQ371A</v>
+        <v>P_MCQ__MCQ371B</v>
       </c>
       <c r="B469" t="b">
         <f>Sheet1!C469</f>
@@ -17585,7 +20520,7 @@
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="str">
         <f>Sheet1!A470</f>
-        <v>P_MCQ__MCQ371B</v>
+        <v>P_MCQ__MCQ371C</v>
       </c>
       <c r="B470" t="b">
         <f>Sheet1!C470</f>
@@ -17599,7 +20534,7 @@
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="str">
         <f>Sheet1!A471</f>
-        <v>P_MCQ__MCQ371C</v>
+        <v>P_MCQ__MCQ371D</v>
       </c>
       <c r="B471" t="b">
         <f>Sheet1!C471</f>
@@ -17613,7 +20548,7 @@
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="str">
         <f>Sheet1!A472</f>
-        <v>P_MCQ__MCQ371D</v>
+        <v>OCD150_Type_of_work_done_last_week</v>
       </c>
       <c r="B472" t="b">
         <f>Sheet1!C472</f>
@@ -17627,7 +20562,7 @@
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="str">
         <f>Sheet1!A473</f>
-        <v>OCD150_Type_of_work_done_last_week</v>
+        <v>OHQ030_When_did_you_last_visit_a_dentist</v>
       </c>
       <c r="B473" t="b">
         <f>Sheet1!C473</f>
@@ -17641,7 +20576,7 @@
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="str">
         <f>Sheet1!A474</f>
-        <v>OHQ030_When_did_you_last_visit_a_dentist</v>
+        <v>OHQ033_Main_reason_for_last_dental_visit</v>
       </c>
       <c r="B474" t="b">
         <f>Sheet1!C474</f>
@@ -17655,7 +20590,7 @@
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="str">
         <f>Sheet1!A475</f>
-        <v>OHQ033_Main_reason_for_last_dental_visit</v>
+        <v>OHQ770_Past_yr_need_dental_but_couldn_t_get_it</v>
       </c>
       <c r="B475" t="b">
         <f>Sheet1!C475</f>
@@ -17669,7 +20604,7 @@
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="str">
         <f>Sheet1!A476</f>
-        <v>OHQ770_Past_yr_need_dental_but_couldn_t_get_it</v>
+        <v>OHQ845_Rate_the_health_of_your_teeth_and_gums</v>
       </c>
       <c r="B476" t="b">
         <f>Sheet1!C476</f>
@@ -17683,7 +20618,7 @@
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="str">
         <f>Sheet1!A477</f>
-        <v>OHQ845_Rate_the_health_of_your_teeth_and_gums</v>
+        <v>PAQ605_Vigorous_work_activity</v>
       </c>
       <c r="B477" t="b">
         <f>Sheet1!C477</f>
@@ -17697,7 +20632,7 @@
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="str">
         <f>Sheet1!A478</f>
-        <v>PAQ605_Vigorous_work_activity</v>
+        <v>PAQ620_Moderate_work_activity</v>
       </c>
       <c r="B478" t="b">
         <f>Sheet1!C478</f>
@@ -17711,7 +20646,7 @@
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="str">
         <f>Sheet1!A479</f>
-        <v>PAQ620_Moderate_work_activity</v>
+        <v>PAQ635_Walk_or_bicycle</v>
       </c>
       <c r="B479" t="b">
         <f>Sheet1!C479</f>
@@ -17725,7 +20660,7 @@
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="str">
         <f>Sheet1!A480</f>
-        <v>PAQ635_Walk_or_bicycle</v>
+        <v>PAQ650_Vigorous_recreational_activities</v>
       </c>
       <c r="B480" t="b">
         <f>Sheet1!C480</f>
@@ -17739,7 +20674,7 @@
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="str">
         <f>Sheet1!A481</f>
-        <v>PAQ650_Vigorous_recreational_activities</v>
+        <v>PAQ665_Moderate_recreational_activities</v>
       </c>
       <c r="B481" t="b">
         <f>Sheet1!C481</f>
@@ -17753,11 +20688,11 @@
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="str">
         <f>Sheet1!A482</f>
-        <v>PAQ665_Moderate_recreational_activities</v>
+        <v>PAD680_Minutes_sedentary_activity</v>
       </c>
       <c r="B482" t="b">
         <f>Sheet1!C482</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C482" t="b">
         <f>Sheet1!D482</f>
@@ -17767,11 +20702,11 @@
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="str">
         <f>Sheet1!A483</f>
-        <v>PAD680_Minutes_sedentary_activity</v>
+        <v>PUQ100_Products_used_in_home_to_control_insects</v>
       </c>
       <c r="B483" t="b">
         <f>Sheet1!C483</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C483" t="b">
         <f>Sheet1!D483</f>
@@ -17781,7 +20716,7 @@
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="str">
         <f>Sheet1!A484</f>
-        <v>PUQ100_Products_used_in_home_to_control_insects</v>
+        <v>PUQ110_Products_used_to_kill_weeds</v>
       </c>
       <c r="B484" t="b">
         <f>Sheet1!C484</f>
@@ -17795,7 +20730,7 @@
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="str">
         <f>Sheet1!A485</f>
-        <v>PUQ110_Products_used_to_kill_weeds</v>
+        <v>SLQ300_Usual_sleep_time_on_weekdays_or_workdays</v>
       </c>
       <c r="B485" t="b">
         <f>Sheet1!C485</f>
@@ -17809,7 +20744,7 @@
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="str">
         <f>Sheet1!A486</f>
-        <v>SLQ300_Usual_sleep_time_on_weekdays_or_workdays</v>
+        <v>SLQ310_Usual_wake_time_on_weekdays_or_workdays</v>
       </c>
       <c r="B486" t="b">
         <f>Sheet1!C486</f>
@@ -17823,7 +20758,7 @@
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="str">
         <f>Sheet1!A487</f>
-        <v>SLQ310_Usual_wake_time_on_weekdays_or_workdays</v>
+        <v>SLD012_Sleep_hours_weekdays_or_workdays</v>
       </c>
       <c r="B487" t="b">
         <f>Sheet1!C487</f>
@@ -17837,7 +20772,7 @@
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="str">
         <f>Sheet1!A488</f>
-        <v>SLD012_Sleep_hours_weekdays_or_workdays</v>
+        <v>SLQ320_Usual_sleep_time_on_weekends</v>
       </c>
       <c r="B488" t="b">
         <f>Sheet1!C488</f>
@@ -17851,7 +20786,7 @@
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="str">
         <f>Sheet1!A489</f>
-        <v>SLQ320_Usual_sleep_time_on_weekends</v>
+        <v>SLQ330_Usual_wake_time_on_weekends</v>
       </c>
       <c r="B489" t="b">
         <f>Sheet1!C489</f>
@@ -17865,7 +20800,7 @@
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="str">
         <f>Sheet1!A490</f>
-        <v>SLQ330_Usual_wake_time_on_weekends</v>
+        <v>SLD013_Sleep_hours_weekends</v>
       </c>
       <c r="B490" t="b">
         <f>Sheet1!C490</f>
@@ -17879,7 +20814,7 @@
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="str">
         <f>Sheet1!A491</f>
-        <v>SLD013_Sleep_hours_weekends</v>
+        <v>SLQ030_How_often_do_you_snore</v>
       </c>
       <c r="B491" t="b">
         <f>Sheet1!C491</f>
@@ -17893,7 +20828,7 @@
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="str">
         <f>Sheet1!A492</f>
-        <v>SLQ030_How_often_do_you_snore</v>
+        <v>SLQ040_How_often_do_you_snort_or_stop_breathing</v>
       </c>
       <c r="B492" t="b">
         <f>Sheet1!C492</f>
@@ -17907,7 +20842,7 @@
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="str">
         <f>Sheet1!A493</f>
-        <v>SLQ040_How_often_do_you_snort_or_stop_breathing</v>
+        <v>SLQ050_Ever_told_doctor_had_trouble_sleeping</v>
       </c>
       <c r="B493" t="b">
         <f>Sheet1!C493</f>
@@ -17921,7 +20856,7 @@
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="str">
         <f>Sheet1!A494</f>
-        <v>SLQ050_Ever_told_doctor_had_trouble_sleeping</v>
+        <v>SLQ120_How_often_feel_overly_sleepy_during_day</v>
       </c>
       <c r="B494" t="b">
         <f>Sheet1!C494</f>
@@ -17935,7 +20870,7 @@
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="str">
         <f>Sheet1!A495</f>
-        <v>SLQ120_How_often_feel_overly_sleepy_during_day</v>
+        <v>SMQ020_Smoked_at_least_100_cigarettes_in_life</v>
       </c>
       <c r="B495" t="b">
         <f>Sheet1!C495</f>
@@ -17949,7 +20884,7 @@
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="str">
         <f>Sheet1!A496</f>
-        <v>SMQ020_Smoked_at_least_100_cigarettes_in_life</v>
+        <v>SMAQUEX2_Questionnaire_Mode_Flag</v>
       </c>
       <c r="B496" t="b">
         <f>Sheet1!C496</f>
@@ -17957,13 +20892,13 @@
       </c>
       <c r="C496" t="b">
         <f>Sheet1!D496</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="str">
         <f>Sheet1!A497</f>
-        <v>SMAQUEX2_Questionnaire_Mode_Flag</v>
+        <v>SMD460_of_people_who_live_here_smoke_tobacco</v>
       </c>
       <c r="B497" t="b">
         <f>Sheet1!C497</f>
@@ -17971,13 +20906,13 @@
       </c>
       <c r="C497" t="b">
         <f>Sheet1!D497</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="str">
         <f>Sheet1!A498</f>
-        <v>SMD460_of_people_who_live_here_smoke_tobacco</v>
+        <v>SMQ681_Smoked_tobacco_last_5_days</v>
       </c>
       <c r="B498" t="b">
         <f>Sheet1!C498</f>
@@ -17991,7 +20926,7 @@
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="str">
         <f>Sheet1!A499</f>
-        <v>SMQ681_Smoked_tobacco_last_5_days</v>
+        <v>SMQ851_Used_smokeless_tobacco_last_5_days</v>
       </c>
       <c r="B499" t="b">
         <f>Sheet1!C499</f>
@@ -18005,7 +20940,7 @@
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="str">
         <f>Sheet1!A500</f>
-        <v>SMQ851_Used_smokeless_tobacco_last_5_days</v>
+        <v>SMQ863_Used_nicotine_replacement_last_5_days</v>
       </c>
       <c r="B500" t="b">
         <f>Sheet1!C500</f>
@@ -18019,7 +20954,7 @@
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="str">
         <f>Sheet1!A501</f>
-        <v>SMQ863_Used_nicotine_replacement_last_5_days</v>
+        <v>SMDANY_Used_any_tobacco_product_last_5_days</v>
       </c>
       <c r="B501" t="b">
         <f>Sheet1!C501</f>
@@ -18033,7 +20968,7 @@
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="str">
         <f>Sheet1!A502</f>
-        <v>SMDANY_Used_any_tobacco_product_last_5_days</v>
+        <v>SMAQUEX_Questionnaire_Mode_Flag</v>
       </c>
       <c r="B502" t="b">
         <f>Sheet1!C502</f>
@@ -18041,13 +20976,13 @@
       </c>
       <c r="C502" t="b">
         <f>Sheet1!D502</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="str">
         <f>Sheet1!A503</f>
-        <v>SMAQUEX_Questionnaire_Mode_Flag</v>
+        <v>SMQ856_Last_7_d_worked_at_job_not_at_home</v>
       </c>
       <c r="B503" t="b">
         <f>Sheet1!C503</f>
@@ -18055,13 +20990,13 @@
       </c>
       <c r="C503" t="b">
         <f>Sheet1!D503</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="str">
         <f>Sheet1!A504</f>
-        <v>SMQ856_Last_7_d_worked_at_job_not_at_home</v>
+        <v>SMQ860_Last_7_d_spent_time_in_a_restaurant</v>
       </c>
       <c r="B504" t="b">
         <f>Sheet1!C504</f>
@@ -18075,7 +21010,7 @@
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="str">
         <f>Sheet1!A505</f>
-        <v>SMQ860_Last_7_d_spent_time_in_a_restaurant</v>
+        <v>SMQ866_Last_7_d_spent_time_in_a_bar</v>
       </c>
       <c r="B505" t="b">
         <f>Sheet1!C505</f>
@@ -18089,7 +21024,7 @@
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="str">
         <f>Sheet1!A506</f>
-        <v>SMQ866_Last_7_d_spent_time_in_a_bar</v>
+        <v>SMQ870_Last_7_d_rode_in_a_car</v>
       </c>
       <c r="B506" t="b">
         <f>Sheet1!C506</f>
@@ -18103,7 +21038,7 @@
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="str">
         <f>Sheet1!A507</f>
-        <v>SMQ870_Last_7_d_rode_in_a_car</v>
+        <v>SMQ872_Last_7_d_someone_smoked_in_car</v>
       </c>
       <c r="B507" t="b">
         <f>Sheet1!C507</f>
@@ -18117,7 +21052,7 @@
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="str">
         <f>Sheet1!A508</f>
-        <v>SMQ872_Last_7_d_someone_smoked_in_car</v>
+        <v>SMQ874_Last_7_d_spent_time_in_another_home</v>
       </c>
       <c r="B508" t="b">
         <f>Sheet1!C508</f>
@@ -18131,7 +21066,7 @@
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="str">
         <f>Sheet1!A509</f>
-        <v>SMQ874_Last_7_d_spent_time_in_another_home</v>
+        <v>SMQ878_Last_7_d_in_other_indoor_area</v>
       </c>
       <c r="B509" t="b">
         <f>Sheet1!C509</f>
@@ -18145,7 +21080,7 @@
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="str">
         <f>Sheet1!A510</f>
-        <v>SMQ878_Last_7_d_in_other_indoor_area</v>
+        <v>SMQ940_Last_7_d_someone_used_e_cigs_indoors</v>
       </c>
       <c r="B510" t="b">
         <f>Sheet1!C510</f>
@@ -18159,7 +21094,7 @@
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="str">
         <f>Sheet1!A511</f>
-        <v>SMQ940_Last_7_d_someone_used_e_cigs_indoors</v>
+        <v>SMAQUEX_Questionnaire_Mode_Flag</v>
       </c>
       <c r="B511" t="b">
         <f>Sheet1!C511</f>
@@ -18167,27 +21102,27 @@
       </c>
       <c r="C511" t="b">
         <f>Sheet1!D511</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="str">
         <f>Sheet1!A512</f>
-        <v>SMAQUEX_Questionnaire_Mode_Flag</v>
+        <v>WHD010_Current_self_reported_height_inches</v>
       </c>
       <c r="B512" t="b">
         <f>Sheet1!C512</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C512" t="b">
         <f>Sheet1!D512</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="str">
         <f>Sheet1!A513</f>
-        <v>WHD010_Current_self_reported_height_inches</v>
+        <v>WHD020_Current_self_reported_weight_pounds</v>
       </c>
       <c r="B513" t="b">
         <f>Sheet1!C513</f>
@@ -18201,11 +21136,11 @@
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="str">
         <f>Sheet1!A514</f>
-        <v>WHD020_Current_self_reported_weight_pounds</v>
+        <v>WHQ030_How_do_you_consider_your_weight</v>
       </c>
       <c r="B514" t="b">
         <f>Sheet1!C514</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C514" t="b">
         <f>Sheet1!D514</f>
@@ -18215,7 +21150,7 @@
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="str">
         <f>Sheet1!A515</f>
-        <v>WHQ030_How_do_you_consider_your_weight</v>
+        <v>WHQ040_Like_to_weigh_more_less_or_same</v>
       </c>
       <c r="B515" t="b">
         <f>Sheet1!C515</f>
@@ -18229,11 +21164,11 @@
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="str">
         <f>Sheet1!A516</f>
-        <v>WHQ040_Like_to_weigh_more_less_or_same</v>
+        <v>WHD050_Self_reported_weight_1_yr_ago_pounds</v>
       </c>
       <c r="B516" t="b">
         <f>Sheet1!C516</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C516" t="b">
         <f>Sheet1!D516</f>
@@ -18243,11 +21178,11 @@
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="str">
         <f>Sheet1!A517</f>
-        <v>WHD050_Self_reported_weight_1_yr_ago_pounds</v>
+        <v>WHQ070_Tried_to_lose_weight_in_past_year</v>
       </c>
       <c r="B517" t="b">
         <f>Sheet1!C517</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C517" t="b">
         <f>Sheet1!D517</f>
@@ -18257,7 +21192,7 @@
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="str">
         <f>Sheet1!A518</f>
-        <v>WHQ070_Tried_to_lose_weight_in_past_year</v>
+        <v>WHQ225_Times_lost_10_lbs_or_more_to_lose_weight</v>
       </c>
       <c r="B518" t="b">
         <f>Sheet1!C518</f>
@@ -18271,11 +21206,11 @@
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="str">
         <f>Sheet1!A519</f>
-        <v>WHQ225_Times_lost_10_lbs_or_more_to_lose_weight</v>
+        <v>WHD120_Self_reported_weight_age_25_pounds</v>
       </c>
       <c r="B519" t="b">
         <f>Sheet1!C519</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C519" t="b">
         <f>Sheet1!D519</f>
@@ -18285,7 +21220,7 @@
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="str">
         <f>Sheet1!A520</f>
-        <v>WHD120_Self_reported_weight_age_25_pounds</v>
+        <v>WHD140_Self_reported_greatest_weight_pounds</v>
       </c>
       <c r="B520" t="b">
         <f>Sheet1!C520</f>
@@ -18299,7 +21234,7 @@
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="str">
         <f>Sheet1!A521</f>
-        <v>WHD140_Self_reported_greatest_weight_pounds</v>
+        <v>WHQ150_Age_when_heaviest_weight</v>
       </c>
       <c r="B521" t="b">
         <f>Sheet1!C521</f>
@@ -18307,20 +21242,6 @@
       </c>
       <c r="C521" t="b">
         <f>Sheet1!D521</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A522" t="str">
-        <f>Sheet1!A522</f>
-        <v>WHQ150_Age_when_heaviest_weight</v>
-      </c>
-      <c r="B522" t="b">
-        <f>Sheet1!C522</f>
-        <v>0</v>
-      </c>
-      <c r="C522" t="b">
-        <f>Sheet1!D522</f>
         <v>1</v>
       </c>
     </row>
